--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>638100</v>
+        <v>1290400</v>
       </c>
       <c r="E8" s="3">
-        <v>44300</v>
+        <v>622400</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>110300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>104600</v>
+        <v>151600</v>
       </c>
       <c r="E9" s="3">
-        <v>19500</v>
+        <v>102000</v>
       </c>
       <c r="F9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>533500</v>
+        <v>1138800</v>
       </c>
       <c r="E10" s="3">
-        <v>24800</v>
+        <v>520400</v>
       </c>
       <c r="F10" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>93300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,23 +899,26 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>402100</v>
+        <v>885400</v>
       </c>
       <c r="E17" s="3">
-        <v>77500</v>
+        <v>392200</v>
       </c>
       <c r="F17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>80800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>236000</v>
+        <v>405000</v>
       </c>
       <c r="E18" s="3">
-        <v>-33100</v>
+        <v>230200</v>
       </c>
       <c r="F18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>29500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2200</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>238700</v>
+        <v>422200</v>
       </c>
       <c r="E21" s="3">
-        <v>-32600</v>
+        <v>232800</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>30000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,50 +1074,56 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>238100</v>
+        <v>415300</v>
       </c>
       <c r="E23" s="3">
-        <v>-32800</v>
+        <v>232300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>29800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,24 +1134,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66900</v>
+        <v>65200</v>
       </c>
       <c r="E24" s="3">
-        <v>-8900</v>
+        <v>65300</v>
       </c>
       <c r="F24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>171200</v>
+        <v>350100</v>
       </c>
       <c r="E26" s="3">
-        <v>-23900</v>
+        <v>167000</v>
       </c>
       <c r="F26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-273200</v>
+        <v>350100</v>
       </c>
       <c r="E27" s="3">
-        <v>-23900</v>
+        <v>-266500</v>
       </c>
       <c r="F27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2200</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-273200</v>
+        <v>350100</v>
       </c>
       <c r="E33" s="3">
-        <v>-23900</v>
+        <v>-266500</v>
       </c>
       <c r="F33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-273200</v>
+        <v>350100</v>
       </c>
       <c r="E35" s="3">
-        <v>-23900</v>
+        <v>-266500</v>
       </c>
       <c r="F35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,23 +1560,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>207400</v>
+        <v>295500</v>
       </c>
       <c r="E41" s="3">
-        <v>67200</v>
+        <v>202600</v>
       </c>
       <c r="F41" s="3">
+        <v>65700</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>634700</v>
+        <v>1973700</v>
       </c>
       <c r="E43" s="3">
-        <v>225300</v>
+        <v>620000</v>
       </c>
       <c r="F43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>220100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,24 +1677,27 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>211300</v>
+        <v>464400</v>
       </c>
       <c r="E45" s="3">
-        <v>74900</v>
+        <v>206400</v>
       </c>
       <c r="F45" s="3">
+        <v>73100</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1053400</v>
+        <v>2733600</v>
       </c>
       <c r="E46" s="3">
-        <v>367400</v>
+        <v>1029100</v>
       </c>
       <c r="F46" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>358900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>11100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,51 +1737,57 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>11000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
-        <v>900</v>
-      </c>
       <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,24 +1887,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>105500</v>
       </c>
       <c r="E52" s="3">
-        <v>26700</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>26100</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1054500</v>
+        <v>2853000</v>
       </c>
       <c r="E54" s="3">
-        <v>395000</v>
+        <v>1030100</v>
       </c>
       <c r="F54" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>385900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,50 +2035,56 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>28000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>415200</v>
+        <v>1326900</v>
       </c>
       <c r="E59" s="3">
-        <v>337400</v>
+        <v>405600</v>
       </c>
       <c r="F59" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>329600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>15600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>415200</v>
+        <v>1355000</v>
       </c>
       <c r="E60" s="3">
-        <v>337400</v>
+        <v>405600</v>
       </c>
       <c r="F60" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>329600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>15600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,17 +2155,20 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>486900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>417500</v>
+        <v>1842000</v>
       </c>
       <c r="E66" s="3">
-        <v>337400</v>
+        <v>407800</v>
       </c>
       <c r="F66" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>329600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,24 +2439,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61700</v>
+        <v>290300</v>
       </c>
       <c r="E72" s="3">
-        <v>-27000</v>
+        <v>-60300</v>
       </c>
       <c r="F72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,24 +2559,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>637100</v>
+        <v>1011000</v>
       </c>
       <c r="E76" s="3">
-        <v>57700</v>
+        <v>622300</v>
       </c>
       <c r="F76" s="3">
+        <v>56300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-273200</v>
+        <v>350100</v>
       </c>
       <c r="E81" s="3">
-        <v>-23900</v>
+        <v>-266500</v>
       </c>
       <c r="F81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40900</v>
+        <v>416100</v>
       </c>
       <c r="E89" s="3">
-        <v>-15900</v>
+        <v>39900</v>
       </c>
       <c r="F89" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-9600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47000</v>
+        <v>-1240100</v>
       </c>
       <c r="E94" s="3">
-        <v>-172800</v>
+        <v>45900</v>
       </c>
       <c r="F94" s="3">
+        <v>-168500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65600</v>
+        <v>1078800</v>
       </c>
       <c r="E100" s="3">
-        <v>325100</v>
+        <v>64000</v>
       </c>
       <c r="F100" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>317100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>10800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,17 +3206,20 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2988,24 +3236,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>151700</v>
+        <v>255000</v>
       </c>
       <c r="E102" s="3">
-        <v>136300</v>
+        <v>148000</v>
       </c>
       <c r="F102" s="3">
+        <v>133000</v>
+      </c>
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1290400</v>
+        <v>1339000</v>
       </c>
       <c r="E8" s="3">
-        <v>622400</v>
+        <v>645800</v>
       </c>
       <c r="F8" s="3">
-        <v>110300</v>
+        <v>114500</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>151600</v>
+        <v>157300</v>
       </c>
       <c r="E9" s="3">
-        <v>102000</v>
+        <v>105900</v>
       </c>
       <c r="F9" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="G9" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1138800</v>
+        <v>1181700</v>
       </c>
       <c r="E10" s="3">
-        <v>520400</v>
+        <v>540000</v>
       </c>
       <c r="F10" s="3">
-        <v>93300</v>
+        <v>96800</v>
       </c>
       <c r="G10" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>885400</v>
+        <v>918800</v>
       </c>
       <c r="E17" s="3">
-        <v>392200</v>
+        <v>407000</v>
       </c>
       <c r="F17" s="3">
-        <v>80800</v>
+        <v>83900</v>
       </c>
       <c r="G17" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>405000</v>
+        <v>420200</v>
       </c>
       <c r="E18" s="3">
-        <v>230200</v>
+        <v>238800</v>
       </c>
       <c r="F18" s="3">
-        <v>29500</v>
+        <v>30600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="E20" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>422200</v>
+        <v>438100</v>
       </c>
       <c r="E21" s="3">
-        <v>232800</v>
+        <v>241600</v>
       </c>
       <c r="F21" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="G21" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>415300</v>
+        <v>430900</v>
       </c>
       <c r="E23" s="3">
-        <v>232300</v>
+        <v>241000</v>
       </c>
       <c r="F23" s="3">
-        <v>29800</v>
+        <v>30900</v>
       </c>
       <c r="G23" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65200</v>
+        <v>67700</v>
       </c>
       <c r="E24" s="3">
-        <v>65300</v>
+        <v>67700</v>
       </c>
       <c r="F24" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="3">
         <v>-1200</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>350100</v>
+        <v>363300</v>
       </c>
       <c r="E26" s="3">
-        <v>167000</v>
+        <v>173300</v>
       </c>
       <c r="F26" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G26" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>350100</v>
+        <v>363300</v>
       </c>
       <c r="E27" s="3">
-        <v>-266500</v>
+        <v>-276600</v>
       </c>
       <c r="F27" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G27" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-16800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>350100</v>
+        <v>363300</v>
       </c>
       <c r="E33" s="3">
-        <v>-266500</v>
+        <v>-276600</v>
       </c>
       <c r="F33" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G33" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>350100</v>
+        <v>363300</v>
       </c>
       <c r="E35" s="3">
-        <v>-266500</v>
+        <v>-276600</v>
       </c>
       <c r="F35" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G35" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>295500</v>
+        <v>306200</v>
       </c>
       <c r="E41" s="3">
-        <v>202600</v>
+        <v>210000</v>
       </c>
       <c r="F41" s="3">
-        <v>65700</v>
+        <v>68000</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1973700</v>
+        <v>2045100</v>
       </c>
       <c r="E43" s="3">
-        <v>620000</v>
+        <v>642500</v>
       </c>
       <c r="F43" s="3">
-        <v>220100</v>
+        <v>228100</v>
       </c>
       <c r="G43" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>464400</v>
+        <v>481200</v>
       </c>
       <c r="E45" s="3">
-        <v>206400</v>
+        <v>213900</v>
       </c>
       <c r="F45" s="3">
-        <v>73100</v>
+        <v>75800</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2733600</v>
+        <v>2832500</v>
       </c>
       <c r="E46" s="3">
-        <v>1029100</v>
+        <v>1066300</v>
       </c>
       <c r="F46" s="3">
-        <v>358900</v>
+        <v>371900</v>
       </c>
       <c r="G46" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105500</v>
+        <v>109300</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2853000</v>
+        <v>2956200</v>
       </c>
       <c r="E54" s="3">
-        <v>1030100</v>
+        <v>1067400</v>
       </c>
       <c r="F54" s="3">
-        <v>385900</v>
+        <v>399900</v>
       </c>
       <c r="G54" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1326900</v>
+        <v>1374900</v>
       </c>
       <c r="E59" s="3">
-        <v>405600</v>
+        <v>420300</v>
       </c>
       <c r="F59" s="3">
-        <v>329600</v>
+        <v>341500</v>
       </c>
       <c r="G59" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1355000</v>
+        <v>1404000</v>
       </c>
       <c r="E60" s="3">
-        <v>405600</v>
+        <v>420300</v>
       </c>
       <c r="F60" s="3">
-        <v>329600</v>
+        <v>341500</v>
       </c>
       <c r="G60" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>486900</v>
+        <v>504500</v>
       </c>
       <c r="E62" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1842000</v>
+        <v>1908600</v>
       </c>
       <c r="E66" s="3">
-        <v>407800</v>
+        <v>422600</v>
       </c>
       <c r="F66" s="3">
-        <v>329600</v>
+        <v>341500</v>
       </c>
       <c r="G66" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>290300</v>
+        <v>300800</v>
       </c>
       <c r="E72" s="3">
-        <v>-60300</v>
+        <v>-62500</v>
       </c>
       <c r="F72" s="3">
-        <v>-26400</v>
+        <v>-27300</v>
       </c>
       <c r="G72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1011000</v>
+        <v>1047600</v>
       </c>
       <c r="E76" s="3">
-        <v>622300</v>
+        <v>644800</v>
       </c>
       <c r="F76" s="3">
-        <v>56300</v>
+        <v>58400</v>
       </c>
       <c r="G76" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>350100</v>
+        <v>363300</v>
       </c>
       <c r="E81" s="3">
-        <v>-266500</v>
+        <v>-276600</v>
       </c>
       <c r="F81" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="G81" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>416100</v>
+        <v>431800</v>
       </c>
       <c r="E89" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="F89" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="G89" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1240100</v>
+        <v>-1286800</v>
       </c>
       <c r="E94" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="F94" s="3">
-        <v>-168500</v>
+        <v>-174900</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1078800</v>
+        <v>1119400</v>
       </c>
       <c r="E100" s="3">
-        <v>64000</v>
+        <v>66400</v>
       </c>
       <c r="F100" s="3">
-        <v>317100</v>
+        <v>329000</v>
       </c>
       <c r="G100" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>255000</v>
+        <v>264600</v>
       </c>
       <c r="E102" s="3">
-        <v>148000</v>
+        <v>153500</v>
       </c>
       <c r="F102" s="3">
-        <v>133000</v>
+        <v>138000</v>
       </c>
       <c r="G102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1339000</v>
+        <v>1402500</v>
       </c>
       <c r="E8" s="3">
-        <v>645800</v>
+        <v>676500</v>
       </c>
       <c r="F8" s="3">
-        <v>114500</v>
+        <v>119900</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>157300</v>
+        <v>164800</v>
       </c>
       <c r="E9" s="3">
-        <v>105900</v>
+        <v>110900</v>
       </c>
       <c r="F9" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="G9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1181700</v>
+        <v>1237700</v>
       </c>
       <c r="E10" s="3">
-        <v>540000</v>
+        <v>565600</v>
       </c>
       <c r="F10" s="3">
-        <v>96800</v>
+        <v>101400</v>
       </c>
       <c r="G10" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>918800</v>
+        <v>962400</v>
       </c>
       <c r="E17" s="3">
-        <v>407000</v>
+        <v>426300</v>
       </c>
       <c r="F17" s="3">
-        <v>83900</v>
+        <v>87900</v>
       </c>
       <c r="G17" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>420200</v>
+        <v>440200</v>
       </c>
       <c r="E18" s="3">
-        <v>238800</v>
+        <v>250200</v>
       </c>
       <c r="F18" s="3">
-        <v>30600</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>438100</v>
+        <v>458900</v>
       </c>
       <c r="E21" s="3">
-        <v>241600</v>
+        <v>253000</v>
       </c>
       <c r="F21" s="3">
-        <v>31100</v>
+        <v>32600</v>
       </c>
       <c r="G21" s="3">
-        <v>-4300</v>
+        <v>-4600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>430900</v>
+        <v>451400</v>
       </c>
       <c r="E23" s="3">
-        <v>241000</v>
+        <v>252500</v>
       </c>
       <c r="F23" s="3">
-        <v>30900</v>
+        <v>32400</v>
       </c>
       <c r="G23" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67700</v>
+        <v>70900</v>
       </c>
       <c r="E24" s="3">
-        <v>67700</v>
+        <v>70900</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G24" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="E26" s="3">
-        <v>173300</v>
+        <v>181500</v>
       </c>
       <c r="F26" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="E27" s="3">
-        <v>-276600</v>
+        <v>-289700</v>
       </c>
       <c r="F27" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G27" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16800</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="E33" s="3">
-        <v>-276600</v>
+        <v>-289700</v>
       </c>
       <c r="F33" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G33" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="E35" s="3">
-        <v>-276600</v>
+        <v>-289700</v>
       </c>
       <c r="F35" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G35" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>306200</v>
+        <v>320700</v>
       </c>
       <c r="E41" s="3">
-        <v>210000</v>
+        <v>219900</v>
       </c>
       <c r="F41" s="3">
-        <v>68000</v>
+        <v>71300</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2045100</v>
+        <v>2142200</v>
       </c>
       <c r="E43" s="3">
-        <v>642500</v>
+        <v>672900</v>
       </c>
       <c r="F43" s="3">
-        <v>228100</v>
+        <v>238900</v>
       </c>
       <c r="G43" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>481200</v>
+        <v>504000</v>
       </c>
       <c r="E45" s="3">
-        <v>213900</v>
+        <v>224000</v>
       </c>
       <c r="F45" s="3">
-        <v>75800</v>
+        <v>79400</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2832500</v>
+        <v>2966900</v>
       </c>
       <c r="E46" s="3">
-        <v>1066300</v>
+        <v>1116900</v>
       </c>
       <c r="F46" s="3">
-        <v>371900</v>
+        <v>389500</v>
       </c>
       <c r="G46" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109300</v>
+        <v>114500</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>27100</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2956200</v>
+        <v>3096500</v>
       </c>
       <c r="E54" s="3">
-        <v>1067400</v>
+        <v>1118000</v>
       </c>
       <c r="F54" s="3">
-        <v>399900</v>
+        <v>418800</v>
       </c>
       <c r="G54" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1374900</v>
+        <v>1440100</v>
       </c>
       <c r="E59" s="3">
-        <v>420300</v>
+        <v>440200</v>
       </c>
       <c r="F59" s="3">
-        <v>341500</v>
+        <v>357700</v>
       </c>
       <c r="G59" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1404000</v>
+        <v>1470600</v>
       </c>
       <c r="E60" s="3">
-        <v>420300</v>
+        <v>440200</v>
       </c>
       <c r="F60" s="3">
-        <v>341500</v>
+        <v>357700</v>
       </c>
       <c r="G60" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>504500</v>
+        <v>528400</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1908600</v>
+        <v>1999200</v>
       </c>
       <c r="E66" s="3">
-        <v>422600</v>
+        <v>442600</v>
       </c>
       <c r="F66" s="3">
-        <v>341500</v>
+        <v>357700</v>
       </c>
       <c r="G66" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>300800</v>
+        <v>315100</v>
       </c>
       <c r="E72" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="F72" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1047600</v>
+        <v>1097300</v>
       </c>
       <c r="E76" s="3">
-        <v>644800</v>
+        <v>675400</v>
       </c>
       <c r="F76" s="3">
-        <v>58400</v>
+        <v>61100</v>
       </c>
       <c r="G76" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>363300</v>
+        <v>380500</v>
       </c>
       <c r="E81" s="3">
-        <v>-276600</v>
+        <v>-289700</v>
       </c>
       <c r="F81" s="3">
-        <v>23900</v>
+        <v>25100</v>
       </c>
       <c r="G81" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>431800</v>
+        <v>452300</v>
       </c>
       <c r="E89" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="F89" s="3">
-        <v>-16100</v>
+        <v>-16900</v>
       </c>
       <c r="G89" s="3">
-        <v>-9900</v>
+        <v>-10400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1286800</v>
+        <v>-1347900</v>
       </c>
       <c r="E94" s="3">
-        <v>47600</v>
+        <v>49800</v>
       </c>
       <c r="F94" s="3">
-        <v>-174900</v>
+        <v>-183200</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1119400</v>
+        <v>1172500</v>
       </c>
       <c r="E100" s="3">
-        <v>66400</v>
+        <v>69600</v>
       </c>
       <c r="F100" s="3">
-        <v>329000</v>
+        <v>344600</v>
       </c>
       <c r="G100" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>264600</v>
+        <v>277200</v>
       </c>
       <c r="E102" s="3">
-        <v>153500</v>
+        <v>160800</v>
       </c>
       <c r="F102" s="3">
-        <v>138000</v>
+        <v>144600</v>
       </c>
       <c r="G102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1402500</v>
+        <v>1408600</v>
       </c>
       <c r="E8" s="3">
-        <v>676500</v>
+        <v>679400</v>
       </c>
       <c r="F8" s="3">
-        <v>119900</v>
+        <v>120400</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>164800</v>
+        <v>165500</v>
       </c>
       <c r="E9" s="3">
-        <v>110900</v>
+        <v>111400</v>
       </c>
       <c r="F9" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="G9" s="3">
         <v>2000</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1237700</v>
+        <v>1243100</v>
       </c>
       <c r="E10" s="3">
-        <v>565600</v>
+        <v>568000</v>
       </c>
       <c r="F10" s="3">
-        <v>101400</v>
+        <v>101800</v>
       </c>
       <c r="G10" s="3">
         <v>-2000</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>962400</v>
+        <v>966500</v>
       </c>
       <c r="E17" s="3">
-        <v>426300</v>
+        <v>428200</v>
       </c>
       <c r="F17" s="3">
-        <v>87900</v>
+        <v>88200</v>
       </c>
       <c r="G17" s="3">
         <v>4600</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>440200</v>
+        <v>442100</v>
       </c>
       <c r="E18" s="3">
-        <v>250200</v>
+        <v>251200</v>
       </c>
       <c r="F18" s="3">
-        <v>32000</v>
+        <v>32200</v>
       </c>
       <c r="G18" s="3">
         <v>-4600</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>458900</v>
+        <v>460900</v>
       </c>
       <c r="E21" s="3">
-        <v>253000</v>
+        <v>254100</v>
       </c>
       <c r="F21" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="G21" s="3">
         <v>-4600</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>451400</v>
+        <v>453300</v>
       </c>
       <c r="E23" s="3">
-        <v>252500</v>
+        <v>253600</v>
       </c>
       <c r="F23" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="G23" s="3">
         <v>-4600</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70900</v>
+        <v>71200</v>
       </c>
       <c r="E24" s="3">
-        <v>70900</v>
+        <v>71300</v>
       </c>
       <c r="F24" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
         <v>-1300</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>380500</v>
+        <v>382100</v>
       </c>
       <c r="E26" s="3">
-        <v>181500</v>
+        <v>182300</v>
       </c>
       <c r="F26" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G26" s="3">
         <v>-3300</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>380500</v>
+        <v>382200</v>
       </c>
       <c r="E27" s="3">
-        <v>-289700</v>
+        <v>-291000</v>
       </c>
       <c r="F27" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G27" s="3">
         <v>-3300</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>380500</v>
+        <v>382200</v>
       </c>
       <c r="E33" s="3">
-        <v>-289700</v>
+        <v>-291000</v>
       </c>
       <c r="F33" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G33" s="3">
         <v>-3300</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>380500</v>
+        <v>382200</v>
       </c>
       <c r="E35" s="3">
-        <v>-289700</v>
+        <v>-291000</v>
       </c>
       <c r="F35" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G35" s="3">
         <v>-3300</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>320700</v>
+        <v>322100</v>
       </c>
       <c r="E41" s="3">
-        <v>219900</v>
+        <v>220900</v>
       </c>
       <c r="F41" s="3">
-        <v>71300</v>
+        <v>71600</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2142200</v>
+        <v>2151500</v>
       </c>
       <c r="E43" s="3">
-        <v>672900</v>
+        <v>675900</v>
       </c>
       <c r="F43" s="3">
-        <v>238900</v>
+        <v>239900</v>
       </c>
       <c r="G43" s="3">
         <v>10400</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>504000</v>
+        <v>506200</v>
       </c>
       <c r="E45" s="3">
-        <v>224000</v>
+        <v>225000</v>
       </c>
       <c r="F45" s="3">
-        <v>79400</v>
+        <v>79700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2966900</v>
+        <v>2979700</v>
       </c>
       <c r="E46" s="3">
-        <v>1116900</v>
+        <v>1121700</v>
       </c>
       <c r="F46" s="3">
-        <v>389500</v>
+        <v>391200</v>
       </c>
       <c r="G46" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114500</v>
+        <v>115000</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3096500</v>
+        <v>3109900</v>
       </c>
       <c r="E54" s="3">
-        <v>1118000</v>
+        <v>1122900</v>
       </c>
       <c r="F54" s="3">
-        <v>418800</v>
+        <v>420600</v>
       </c>
       <c r="G54" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1440100</v>
+        <v>1446400</v>
       </c>
       <c r="E59" s="3">
-        <v>440200</v>
+        <v>442100</v>
       </c>
       <c r="F59" s="3">
-        <v>357700</v>
+        <v>359300</v>
       </c>
       <c r="G59" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1470600</v>
+        <v>1477000</v>
       </c>
       <c r="E60" s="3">
-        <v>440200</v>
+        <v>442100</v>
       </c>
       <c r="F60" s="3">
-        <v>357700</v>
+        <v>359300</v>
       </c>
       <c r="G60" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>528400</v>
+        <v>530700</v>
       </c>
       <c r="E62" s="3">
         <v>2400</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1999200</v>
+        <v>2007900</v>
       </c>
       <c r="E66" s="3">
-        <v>442600</v>
+        <v>444500</v>
       </c>
       <c r="F66" s="3">
-        <v>357700</v>
+        <v>359300</v>
       </c>
       <c r="G66" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>315100</v>
+        <v>316500</v>
       </c>
       <c r="E72" s="3">
-        <v>-65500</v>
+        <v>-65700</v>
       </c>
       <c r="F72" s="3">
-        <v>-28600</v>
+        <v>-28800</v>
       </c>
       <c r="G72" s="3">
         <v>-3300</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1097300</v>
+        <v>1102100</v>
       </c>
       <c r="E76" s="3">
-        <v>675400</v>
+        <v>678400</v>
       </c>
       <c r="F76" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="G76" s="3">
         <v>-3300</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>380500</v>
+        <v>382200</v>
       </c>
       <c r="E81" s="3">
-        <v>-289700</v>
+        <v>-291000</v>
       </c>
       <c r="F81" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G81" s="3">
         <v>-3300</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>452300</v>
+        <v>454200</v>
       </c>
       <c r="E89" s="3">
-        <v>43400</v>
+        <v>43600</v>
       </c>
       <c r="F89" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="G89" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1347900</v>
+        <v>-1353700</v>
       </c>
       <c r="E94" s="3">
-        <v>49800</v>
+        <v>50100</v>
       </c>
       <c r="F94" s="3">
-        <v>-183200</v>
+        <v>-184000</v>
       </c>
       <c r="G94" s="3">
         <v>-400</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1172500</v>
+        <v>1177600</v>
       </c>
       <c r="E100" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="F100" s="3">
-        <v>344600</v>
+        <v>346100</v>
       </c>
       <c r="G100" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>277200</v>
+        <v>278400</v>
       </c>
       <c r="E102" s="3">
-        <v>160800</v>
+        <v>161500</v>
       </c>
       <c r="F102" s="3">
-        <v>144600</v>
+        <v>145200</v>
       </c>
       <c r="G102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1408600</v>
+        <v>2116100</v>
       </c>
       <c r="E8" s="3">
-        <v>679400</v>
+        <v>1438400</v>
       </c>
       <c r="F8" s="3">
-        <v>120400</v>
+        <v>693800</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>123000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>165500</v>
+        <v>249700</v>
       </c>
       <c r="E9" s="3">
-        <v>111400</v>
+        <v>169000</v>
       </c>
       <c r="F9" s="3">
-        <v>18600</v>
+        <v>113700</v>
       </c>
       <c r="G9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,27 +774,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1243100</v>
+        <v>1866400</v>
       </c>
       <c r="E10" s="3">
-        <v>568000</v>
+        <v>1269400</v>
       </c>
       <c r="F10" s="3">
-        <v>101800</v>
+        <v>580000</v>
       </c>
       <c r="G10" s="3">
+        <v>104000</v>
+      </c>
+      <c r="H10" s="3">
         <v>-2000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,14 +936,14 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>966500</v>
+        <v>1524800</v>
       </c>
       <c r="E17" s="3">
-        <v>428200</v>
+        <v>987000</v>
       </c>
       <c r="F17" s="3">
-        <v>88200</v>
+        <v>437200</v>
       </c>
       <c r="G17" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>90100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>442100</v>
+        <v>591300</v>
       </c>
       <c r="E18" s="3">
-        <v>251200</v>
+        <v>451400</v>
       </c>
       <c r="F18" s="3">
-        <v>32200</v>
+        <v>256600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>32900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17600</v>
+        <v>45500</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>18000</v>
       </c>
       <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>460900</v>
+        <v>642400</v>
       </c>
       <c r="E21" s="3">
-        <v>254100</v>
+        <v>470600</v>
       </c>
       <c r="F21" s="3">
-        <v>32700</v>
+        <v>259500</v>
       </c>
       <c r="G21" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>33400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,17 +1113,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1104,29 +1143,32 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>453300</v>
+        <v>636800</v>
       </c>
       <c r="E23" s="3">
-        <v>253600</v>
+        <v>462900</v>
       </c>
       <c r="F23" s="3">
-        <v>32500</v>
+        <v>258900</v>
       </c>
       <c r="G23" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>33200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,27 +1179,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71200</v>
+        <v>91400</v>
       </c>
       <c r="E24" s="3">
-        <v>71300</v>
+        <v>72700</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>72800</v>
       </c>
       <c r="G24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>382100</v>
+        <v>545400</v>
       </c>
       <c r="E26" s="3">
-        <v>182300</v>
+        <v>390200</v>
       </c>
       <c r="F26" s="3">
-        <v>25200</v>
+        <v>186200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>382200</v>
+        <v>545500</v>
       </c>
       <c r="E27" s="3">
-        <v>-291000</v>
+        <v>390300</v>
       </c>
       <c r="F27" s="3">
-        <v>25200</v>
+        <v>-297100</v>
       </c>
       <c r="G27" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17600</v>
+        <v>-45500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>-18000</v>
       </c>
       <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>382200</v>
+        <v>545500</v>
       </c>
       <c r="E33" s="3">
-        <v>-291000</v>
+        <v>390300</v>
       </c>
       <c r="F33" s="3">
-        <v>25200</v>
+        <v>-297100</v>
       </c>
       <c r="G33" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-3400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>382200</v>
+        <v>545500</v>
       </c>
       <c r="E35" s="3">
-        <v>-291000</v>
+        <v>390300</v>
       </c>
       <c r="F35" s="3">
-        <v>25200</v>
+        <v>-297100</v>
       </c>
       <c r="G35" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-3400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>322100</v>
+        <v>689300</v>
       </c>
       <c r="E41" s="3">
-        <v>220900</v>
+        <v>328900</v>
       </c>
       <c r="F41" s="3">
-        <v>71600</v>
+        <v>225600</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>73100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2151500</v>
+        <v>2150700</v>
       </c>
       <c r="E43" s="3">
-        <v>675900</v>
+        <v>2196900</v>
       </c>
       <c r="F43" s="3">
-        <v>239900</v>
+        <v>690100</v>
       </c>
       <c r="G43" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>245000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,27 +1775,30 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>506200</v>
+        <v>572900</v>
       </c>
       <c r="E45" s="3">
-        <v>225000</v>
+        <v>516900</v>
       </c>
       <c r="F45" s="3">
-        <v>79700</v>
+        <v>229700</v>
       </c>
       <c r="G45" s="3">
+        <v>81400</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2979700</v>
+        <v>3412900</v>
       </c>
       <c r="E46" s="3">
-        <v>1121700</v>
+        <v>3042700</v>
       </c>
       <c r="F46" s="3">
-        <v>391200</v>
+        <v>1145400</v>
       </c>
       <c r="G46" s="3">
-        <v>12100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>399500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>12300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,17 +1841,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>162400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1767,30 +1871,33 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>10700</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1810,16 +1920,16 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2006,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115000</v>
+        <v>218200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>108800</v>
       </c>
       <c r="F52" s="3">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3109900</v>
+        <v>3804700</v>
       </c>
       <c r="E54" s="3">
-        <v>1122900</v>
+        <v>3175700</v>
       </c>
       <c r="F54" s="3">
-        <v>420600</v>
+        <v>1146600</v>
       </c>
       <c r="G54" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>429500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>14000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,17 +2168,20 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>29100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>31200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2065,29 +2198,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1446400</v>
+        <v>2059000</v>
       </c>
       <c r="E59" s="3">
-        <v>442100</v>
+        <v>1477000</v>
       </c>
       <c r="F59" s="3">
-        <v>359300</v>
+        <v>451500</v>
       </c>
       <c r="G59" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>366900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>17400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1477000</v>
+        <v>2088100</v>
       </c>
       <c r="E60" s="3">
-        <v>442100</v>
+        <v>1508200</v>
       </c>
       <c r="F60" s="3">
-        <v>359300</v>
+        <v>451500</v>
       </c>
       <c r="G60" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>366900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>17400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,20 +2300,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>530700</v>
+        <v>237400</v>
       </c>
       <c r="E62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>541900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2007900</v>
+        <v>2325600</v>
       </c>
       <c r="E66" s="3">
-        <v>444500</v>
+        <v>2050300</v>
       </c>
       <c r="F66" s="3">
-        <v>359300</v>
+        <v>453900</v>
       </c>
       <c r="G66" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>366900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>17400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>316500</v>
+        <v>645500</v>
       </c>
       <c r="E72" s="3">
-        <v>-65700</v>
+        <v>323100</v>
       </c>
       <c r="F72" s="3">
-        <v>-28800</v>
+        <v>-67100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-29400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-3400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1102100</v>
+        <v>1479100</v>
       </c>
       <c r="E76" s="3">
-        <v>678400</v>
+        <v>1125400</v>
       </c>
       <c r="F76" s="3">
-        <v>61400</v>
+        <v>692700</v>
       </c>
       <c r="G76" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>62700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-3400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>382200</v>
+        <v>545500</v>
       </c>
       <c r="E81" s="3">
-        <v>-291000</v>
+        <v>390300</v>
       </c>
       <c r="F81" s="3">
-        <v>25200</v>
+        <v>-297100</v>
       </c>
       <c r="G81" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>25700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-3400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>454200</v>
+        <v>830900</v>
       </c>
       <c r="E89" s="3">
-        <v>43600</v>
+        <v>463800</v>
       </c>
       <c r="F89" s="3">
-        <v>-17000</v>
+        <v>44500</v>
       </c>
       <c r="G89" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-17300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-10700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3241,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1353700</v>
+        <v>139300</v>
       </c>
       <c r="E94" s="3">
-        <v>50100</v>
+        <v>-1382300</v>
       </c>
       <c r="F94" s="3">
-        <v>-184000</v>
+        <v>51100</v>
       </c>
       <c r="G94" s="3">
+        <v>-187900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1177600</v>
+        <v>-512100</v>
       </c>
       <c r="E100" s="3">
-        <v>69900</v>
+        <v>1202500</v>
       </c>
       <c r="F100" s="3">
-        <v>346100</v>
+        <v>71400</v>
       </c>
       <c r="G100" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>353400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>12000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,9 +3454,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3219,11 +3467,11 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278400</v>
+        <v>458400</v>
       </c>
       <c r="E102" s="3">
-        <v>161500</v>
+        <v>284300</v>
       </c>
       <c r="F102" s="3">
-        <v>145200</v>
+        <v>164900</v>
       </c>
       <c r="G102" s="3">
-        <v>900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>148200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2116100</v>
+        <v>2088600</v>
       </c>
       <c r="E8" s="3">
-        <v>1438400</v>
+        <v>1419700</v>
       </c>
       <c r="F8" s="3">
-        <v>693800</v>
+        <v>684800</v>
       </c>
       <c r="G8" s="3">
-        <v>123000</v>
+        <v>121400</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>249700</v>
+        <v>246500</v>
       </c>
       <c r="E9" s="3">
-        <v>169000</v>
+        <v>166800</v>
       </c>
       <c r="F9" s="3">
-        <v>113700</v>
+        <v>112300</v>
       </c>
       <c r="G9" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="H9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1866400</v>
+        <v>1842100</v>
       </c>
       <c r="E10" s="3">
-        <v>1269400</v>
+        <v>1252900</v>
       </c>
       <c r="F10" s="3">
-        <v>580000</v>
+        <v>572500</v>
       </c>
       <c r="G10" s="3">
-        <v>104000</v>
+        <v>102600</v>
       </c>
       <c r="H10" s="3">
         <v>-2000</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1524800</v>
+        <v>1505000</v>
       </c>
       <c r="E17" s="3">
-        <v>987000</v>
+        <v>974100</v>
       </c>
       <c r="F17" s="3">
-        <v>437200</v>
+        <v>431500</v>
       </c>
       <c r="G17" s="3">
-        <v>90100</v>
+        <v>88900</v>
       </c>
       <c r="H17" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>591300</v>
+        <v>583600</v>
       </c>
       <c r="E18" s="3">
-        <v>451400</v>
+        <v>445600</v>
       </c>
       <c r="F18" s="3">
-        <v>256600</v>
+        <v>253200</v>
       </c>
       <c r="G18" s="3">
-        <v>32900</v>
+        <v>32400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="E20" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>642400</v>
+        <v>634100</v>
       </c>
       <c r="E21" s="3">
-        <v>470600</v>
+        <v>464500</v>
       </c>
       <c r="F21" s="3">
-        <v>259500</v>
+        <v>256100</v>
       </c>
       <c r="G21" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="H21" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>636800</v>
+        <v>628500</v>
       </c>
       <c r="E23" s="3">
-        <v>462900</v>
+        <v>456900</v>
       </c>
       <c r="F23" s="3">
-        <v>258900</v>
+        <v>255600</v>
       </c>
       <c r="G23" s="3">
-        <v>33200</v>
+        <v>32800</v>
       </c>
       <c r="H23" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91400</v>
+        <v>90200</v>
       </c>
       <c r="E24" s="3">
-        <v>72700</v>
+        <v>71800</v>
       </c>
       <c r="F24" s="3">
-        <v>72800</v>
+        <v>71800</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="H24" s="3">
         <v>-1300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>545400</v>
+        <v>538300</v>
       </c>
       <c r="E26" s="3">
-        <v>390200</v>
+        <v>385200</v>
       </c>
       <c r="F26" s="3">
-        <v>186200</v>
+        <v>183700</v>
       </c>
       <c r="G26" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>545500</v>
+        <v>538400</v>
       </c>
       <c r="E27" s="3">
-        <v>390300</v>
+        <v>385200</v>
       </c>
       <c r="F27" s="3">
-        <v>-297100</v>
+        <v>-293200</v>
       </c>
       <c r="G27" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H27" s="3">
         <v>-3400</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45500</v>
+        <v>-44900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>545500</v>
+        <v>538400</v>
       </c>
       <c r="E33" s="3">
-        <v>390300</v>
+        <v>385200</v>
       </c>
       <c r="F33" s="3">
-        <v>-297100</v>
+        <v>-293200</v>
       </c>
       <c r="G33" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H33" s="3">
         <v>-3400</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>545500</v>
+        <v>538400</v>
       </c>
       <c r="E35" s="3">
-        <v>390300</v>
+        <v>385200</v>
       </c>
       <c r="F35" s="3">
-        <v>-297100</v>
+        <v>-293200</v>
       </c>
       <c r="G35" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H35" s="3">
         <v>-3400</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>689300</v>
+        <v>680300</v>
       </c>
       <c r="E41" s="3">
-        <v>328900</v>
+        <v>324600</v>
       </c>
       <c r="F41" s="3">
-        <v>225600</v>
+        <v>222600</v>
       </c>
       <c r="G41" s="3">
-        <v>73100</v>
+        <v>72100</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2150700</v>
+        <v>2122700</v>
       </c>
       <c r="E43" s="3">
-        <v>2196900</v>
+        <v>2168400</v>
       </c>
       <c r="F43" s="3">
-        <v>690100</v>
+        <v>681200</v>
       </c>
       <c r="G43" s="3">
-        <v>245000</v>
+        <v>241800</v>
       </c>
       <c r="H43" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>572900</v>
+        <v>565400</v>
       </c>
       <c r="E45" s="3">
-        <v>516900</v>
+        <v>510200</v>
       </c>
       <c r="F45" s="3">
-        <v>229700</v>
+        <v>226700</v>
       </c>
       <c r="G45" s="3">
-        <v>81400</v>
+        <v>80300</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3412900</v>
+        <v>3368500</v>
       </c>
       <c r="E46" s="3">
-        <v>3042700</v>
+        <v>3003100</v>
       </c>
       <c r="F46" s="3">
-        <v>1145400</v>
+        <v>1130500</v>
       </c>
       <c r="G46" s="3">
-        <v>399500</v>
+        <v>394300</v>
       </c>
       <c r="H46" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>162400</v>
+        <v>160300</v>
       </c>
       <c r="E47" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>218200</v>
+        <v>215400</v>
       </c>
       <c r="E52" s="3">
-        <v>108800</v>
+        <v>107400</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3804700</v>
+        <v>3755200</v>
       </c>
       <c r="E54" s="3">
-        <v>3175700</v>
+        <v>3134400</v>
       </c>
       <c r="F54" s="3">
-        <v>1146600</v>
+        <v>1131700</v>
       </c>
       <c r="G54" s="3">
-        <v>429500</v>
+        <v>423900</v>
       </c>
       <c r="H54" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="E58" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2059000</v>
+        <v>2032200</v>
       </c>
       <c r="E59" s="3">
-        <v>1477000</v>
+        <v>1457800</v>
       </c>
       <c r="F59" s="3">
-        <v>451500</v>
+        <v>445600</v>
       </c>
       <c r="G59" s="3">
-        <v>366900</v>
+        <v>362100</v>
       </c>
       <c r="H59" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2088100</v>
+        <v>2060900</v>
       </c>
       <c r="E60" s="3">
-        <v>1508200</v>
+        <v>1488600</v>
       </c>
       <c r="F60" s="3">
-        <v>451500</v>
+        <v>445600</v>
       </c>
       <c r="G60" s="3">
-        <v>366900</v>
+        <v>362100</v>
       </c>
       <c r="H60" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>237400</v>
+        <v>234300</v>
       </c>
       <c r="E62" s="3">
-        <v>541900</v>
+        <v>534900</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2325600</v>
+        <v>2295300</v>
       </c>
       <c r="E66" s="3">
-        <v>2050300</v>
+        <v>2023600</v>
       </c>
       <c r="F66" s="3">
-        <v>453900</v>
+        <v>448000</v>
       </c>
       <c r="G66" s="3">
-        <v>366900</v>
+        <v>362100</v>
       </c>
       <c r="H66" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>645500</v>
+        <v>637100</v>
       </c>
       <c r="E72" s="3">
-        <v>323100</v>
+        <v>318900</v>
       </c>
       <c r="F72" s="3">
-        <v>-67100</v>
+        <v>-66300</v>
       </c>
       <c r="G72" s="3">
-        <v>-29400</v>
+        <v>-29000</v>
       </c>
       <c r="H72" s="3">
         <v>-3400</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1479100</v>
+        <v>1459800</v>
       </c>
       <c r="E76" s="3">
-        <v>1125400</v>
+        <v>1110700</v>
       </c>
       <c r="F76" s="3">
-        <v>692700</v>
+        <v>683700</v>
       </c>
       <c r="G76" s="3">
-        <v>62700</v>
+        <v>61900</v>
       </c>
       <c r="H76" s="3">
         <v>-3400</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>545500</v>
+        <v>538400</v>
       </c>
       <c r="E81" s="3">
-        <v>390300</v>
+        <v>385200</v>
       </c>
       <c r="F81" s="3">
-        <v>-297100</v>
+        <v>-293200</v>
       </c>
       <c r="G81" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H81" s="3">
         <v>-3400</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>830900</v>
+        <v>820100</v>
       </c>
       <c r="E89" s="3">
-        <v>463800</v>
+        <v>457800</v>
       </c>
       <c r="F89" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="G89" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="H89" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,7 +3155,7 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F91" s="3">
         <v>-1300</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>139300</v>
+        <v>137500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1382300</v>
+        <v>-1364300</v>
       </c>
       <c r="F94" s="3">
-        <v>51100</v>
+        <v>50500</v>
       </c>
       <c r="G94" s="3">
-        <v>-187900</v>
+        <v>-185400</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-512100</v>
+        <v>-505400</v>
       </c>
       <c r="E100" s="3">
-        <v>1202500</v>
+        <v>1186900</v>
       </c>
       <c r="F100" s="3">
-        <v>71400</v>
+        <v>70400</v>
       </c>
       <c r="G100" s="3">
-        <v>353400</v>
+        <v>348800</v>
       </c>
       <c r="H100" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>458400</v>
+        <v>452500</v>
       </c>
       <c r="E102" s="3">
-        <v>284300</v>
+        <v>280600</v>
       </c>
       <c r="F102" s="3">
-        <v>164900</v>
+        <v>162800</v>
       </c>
       <c r="G102" s="3">
-        <v>148200</v>
+        <v>146300</v>
       </c>
       <c r="H102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2088600</v>
+        <v>2123600</v>
       </c>
       <c r="E8" s="3">
-        <v>1419700</v>
+        <v>1443500</v>
       </c>
       <c r="F8" s="3">
-        <v>684800</v>
+        <v>696200</v>
       </c>
       <c r="G8" s="3">
-        <v>121400</v>
+        <v>123400</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>246500</v>
+        <v>250600</v>
       </c>
       <c r="E9" s="3">
-        <v>166800</v>
+        <v>169600</v>
       </c>
       <c r="F9" s="3">
-        <v>112300</v>
+        <v>114100</v>
       </c>
       <c r="G9" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="H9" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1842100</v>
+        <v>1873000</v>
       </c>
       <c r="E10" s="3">
-        <v>1252900</v>
+        <v>1273800</v>
       </c>
       <c r="F10" s="3">
-        <v>572500</v>
+        <v>582100</v>
       </c>
       <c r="G10" s="3">
-        <v>102600</v>
+        <v>104300</v>
       </c>
       <c r="H10" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1505000</v>
+        <v>1530200</v>
       </c>
       <c r="E17" s="3">
-        <v>974100</v>
+        <v>990400</v>
       </c>
       <c r="F17" s="3">
-        <v>431500</v>
+        <v>438800</v>
       </c>
       <c r="G17" s="3">
-        <v>88900</v>
+        <v>90400</v>
       </c>
       <c r="H17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>583600</v>
+        <v>593400</v>
       </c>
       <c r="E18" s="3">
-        <v>445600</v>
+        <v>453000</v>
       </c>
       <c r="F18" s="3">
-        <v>253200</v>
+        <v>257500</v>
       </c>
       <c r="G18" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="H18" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="E20" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="F20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>634100</v>
+        <v>644700</v>
       </c>
       <c r="E21" s="3">
-        <v>464500</v>
+        <v>472300</v>
       </c>
       <c r="F21" s="3">
-        <v>256100</v>
+        <v>260400</v>
       </c>
       <c r="G21" s="3">
-        <v>33000</v>
+        <v>33600</v>
       </c>
       <c r="H21" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>628500</v>
+        <v>639000</v>
       </c>
       <c r="E23" s="3">
-        <v>456900</v>
+        <v>464600</v>
       </c>
       <c r="F23" s="3">
-        <v>255600</v>
+        <v>259800</v>
       </c>
       <c r="G23" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="E24" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="F24" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
         <v>-1300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>538300</v>
+        <v>547300</v>
       </c>
       <c r="E26" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="F26" s="3">
-        <v>183700</v>
+        <v>186800</v>
       </c>
       <c r="G26" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>538400</v>
+        <v>547400</v>
       </c>
       <c r="E27" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="F27" s="3">
-        <v>-293200</v>
+        <v>-298200</v>
       </c>
       <c r="G27" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
         <v>-3400</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44900</v>
+        <v>-45700</v>
       </c>
       <c r="E32" s="3">
-        <v>-17800</v>
+        <v>-18100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>538400</v>
+        <v>547400</v>
       </c>
       <c r="E33" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="F33" s="3">
-        <v>-293200</v>
+        <v>-298200</v>
       </c>
       <c r="G33" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
         <v>-3400</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>538400</v>
+        <v>547400</v>
       </c>
       <c r="E35" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="F35" s="3">
-        <v>-293200</v>
+        <v>-298200</v>
       </c>
       <c r="G35" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
         <v>-3400</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>680300</v>
+        <v>691700</v>
       </c>
       <c r="E41" s="3">
-        <v>324600</v>
+        <v>330000</v>
       </c>
       <c r="F41" s="3">
-        <v>222600</v>
+        <v>226400</v>
       </c>
       <c r="G41" s="3">
-        <v>72100</v>
+        <v>73400</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2122700</v>
+        <v>2158200</v>
       </c>
       <c r="E43" s="3">
-        <v>2168400</v>
+        <v>2204700</v>
       </c>
       <c r="F43" s="3">
-        <v>681200</v>
+        <v>692600</v>
       </c>
       <c r="G43" s="3">
-        <v>241800</v>
+        <v>245900</v>
       </c>
       <c r="H43" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>565400</v>
+        <v>574900</v>
       </c>
       <c r="E45" s="3">
-        <v>510200</v>
+        <v>518700</v>
       </c>
       <c r="F45" s="3">
-        <v>226700</v>
+        <v>230500</v>
       </c>
       <c r="G45" s="3">
-        <v>80300</v>
+        <v>81700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3368500</v>
+        <v>3424900</v>
       </c>
       <c r="E46" s="3">
-        <v>3003100</v>
+        <v>3053500</v>
       </c>
       <c r="F46" s="3">
-        <v>1130500</v>
+        <v>1149500</v>
       </c>
       <c r="G46" s="3">
-        <v>394300</v>
+        <v>400900</v>
       </c>
       <c r="H46" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>160300</v>
+        <v>163000</v>
       </c>
       <c r="E47" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E48" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>215400</v>
+        <v>219000</v>
       </c>
       <c r="E52" s="3">
-        <v>107400</v>
+        <v>109200</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3755200</v>
+        <v>3818100</v>
       </c>
       <c r="E54" s="3">
-        <v>3134400</v>
+        <v>3186900</v>
       </c>
       <c r="F54" s="3">
-        <v>1131700</v>
+        <v>1150700</v>
       </c>
       <c r="G54" s="3">
-        <v>423900</v>
+        <v>431100</v>
       </c>
       <c r="H54" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28800</v>
+        <v>29200</v>
       </c>
       <c r="E58" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2032200</v>
+        <v>2066200</v>
       </c>
       <c r="E59" s="3">
-        <v>1457800</v>
+        <v>1482200</v>
       </c>
       <c r="F59" s="3">
-        <v>445600</v>
+        <v>453100</v>
       </c>
       <c r="G59" s="3">
-        <v>362100</v>
+        <v>368100</v>
       </c>
       <c r="H59" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2060900</v>
+        <v>2095500</v>
       </c>
       <c r="E60" s="3">
-        <v>1488600</v>
+        <v>1513500</v>
       </c>
       <c r="F60" s="3">
-        <v>445600</v>
+        <v>453100</v>
       </c>
       <c r="G60" s="3">
-        <v>362100</v>
+        <v>368100</v>
       </c>
       <c r="H60" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>234300</v>
+        <v>238200</v>
       </c>
       <c r="E62" s="3">
-        <v>534900</v>
+        <v>543800</v>
       </c>
       <c r="F62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2295300</v>
+        <v>2333800</v>
       </c>
       <c r="E66" s="3">
-        <v>2023600</v>
+        <v>2057500</v>
       </c>
       <c r="F66" s="3">
-        <v>448000</v>
+        <v>455500</v>
       </c>
       <c r="G66" s="3">
-        <v>362100</v>
+        <v>368100</v>
       </c>
       <c r="H66" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>637100</v>
+        <v>647800</v>
       </c>
       <c r="E72" s="3">
-        <v>318900</v>
+        <v>324300</v>
       </c>
       <c r="F72" s="3">
-        <v>-66300</v>
+        <v>-67400</v>
       </c>
       <c r="G72" s="3">
-        <v>-29000</v>
+        <v>-29500</v>
       </c>
       <c r="H72" s="3">
         <v>-3400</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1459800</v>
+        <v>1484300</v>
       </c>
       <c r="E76" s="3">
-        <v>1110700</v>
+        <v>1129300</v>
       </c>
       <c r="F76" s="3">
-        <v>683700</v>
+        <v>695200</v>
       </c>
       <c r="G76" s="3">
-        <v>61900</v>
+        <v>62900</v>
       </c>
       <c r="H76" s="3">
         <v>-3400</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>538400</v>
+        <v>547400</v>
       </c>
       <c r="E81" s="3">
-        <v>385200</v>
+        <v>391600</v>
       </c>
       <c r="F81" s="3">
-        <v>-293200</v>
+        <v>-298200</v>
       </c>
       <c r="G81" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
         <v>-3400</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>820100</v>
+        <v>833800</v>
       </c>
       <c r="E89" s="3">
-        <v>457800</v>
+        <v>465500</v>
       </c>
       <c r="F89" s="3">
-        <v>43900</v>
+        <v>44600</v>
       </c>
       <c r="G89" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="H89" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3155,7 +3155,7 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F91" s="3">
         <v>-1300</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>137500</v>
+        <v>139800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1364300</v>
+        <v>-1387200</v>
       </c>
       <c r="F94" s="3">
-        <v>50500</v>
+        <v>51300</v>
       </c>
       <c r="G94" s="3">
-        <v>-185400</v>
+        <v>-188500</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505400</v>
+        <v>-513900</v>
       </c>
       <c r="E100" s="3">
-        <v>1186900</v>
+        <v>1206700</v>
       </c>
       <c r="F100" s="3">
-        <v>70400</v>
+        <v>71600</v>
       </c>
       <c r="G100" s="3">
-        <v>348800</v>
+        <v>354700</v>
       </c>
       <c r="H100" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>452500</v>
+        <v>460000</v>
       </c>
       <c r="E102" s="3">
-        <v>280600</v>
+        <v>285300</v>
       </c>
       <c r="F102" s="3">
-        <v>162800</v>
+        <v>165500</v>
       </c>
       <c r="G102" s="3">
-        <v>146300</v>
+        <v>148800</v>
       </c>
       <c r="H102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2123600</v>
+        <v>2139800</v>
       </c>
       <c r="E8" s="3">
-        <v>1443500</v>
+        <v>1454500</v>
       </c>
       <c r="F8" s="3">
-        <v>696200</v>
+        <v>701600</v>
       </c>
       <c r="G8" s="3">
-        <v>123400</v>
+        <v>124300</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>250600</v>
+        <v>252500</v>
       </c>
       <c r="E9" s="3">
-        <v>169600</v>
+        <v>170900</v>
       </c>
       <c r="F9" s="3">
-        <v>114100</v>
+        <v>115000</v>
       </c>
       <c r="G9" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="H9" s="3">
         <v>2100</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1873000</v>
+        <v>1887300</v>
       </c>
       <c r="E10" s="3">
-        <v>1273800</v>
+        <v>1283600</v>
       </c>
       <c r="F10" s="3">
-        <v>582100</v>
+        <v>586600</v>
       </c>
       <c r="G10" s="3">
-        <v>104300</v>
+        <v>105100</v>
       </c>
       <c r="H10" s="3">
         <v>-2100</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1530200</v>
+        <v>1541900</v>
       </c>
       <c r="E17" s="3">
-        <v>990400</v>
+        <v>998000</v>
       </c>
       <c r="F17" s="3">
-        <v>438800</v>
+        <v>442100</v>
       </c>
       <c r="G17" s="3">
-        <v>90400</v>
+        <v>91100</v>
       </c>
       <c r="H17" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>593400</v>
+        <v>597900</v>
       </c>
       <c r="E18" s="3">
-        <v>453000</v>
+        <v>456500</v>
       </c>
       <c r="F18" s="3">
-        <v>257500</v>
+        <v>259400</v>
       </c>
       <c r="G18" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="H18" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45700</v>
+        <v>46000</v>
       </c>
       <c r="E20" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="F20" s="3">
         <v>2400</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>644700</v>
+        <v>649600</v>
       </c>
       <c r="E21" s="3">
-        <v>472300</v>
+        <v>475900</v>
       </c>
       <c r="F21" s="3">
-        <v>260400</v>
+        <v>262400</v>
       </c>
       <c r="G21" s="3">
-        <v>33600</v>
+        <v>33800</v>
       </c>
       <c r="H21" s="3">
         <v>-4700</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>639000</v>
+        <v>643900</v>
       </c>
       <c r="E23" s="3">
-        <v>464600</v>
+        <v>468100</v>
       </c>
       <c r="F23" s="3">
-        <v>259800</v>
+        <v>261800</v>
       </c>
       <c r="G23" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="H23" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91700</v>
+        <v>92500</v>
       </c>
       <c r="E24" s="3">
-        <v>73000</v>
+        <v>73500</v>
       </c>
       <c r="F24" s="3">
-        <v>73000</v>
+        <v>73600</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
         <v>-1300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>547300</v>
+        <v>551500</v>
       </c>
       <c r="E26" s="3">
-        <v>391600</v>
+        <v>394600</v>
       </c>
       <c r="F26" s="3">
-        <v>186800</v>
+        <v>188300</v>
       </c>
       <c r="G26" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H26" s="3">
         <v>-3400</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>547400</v>
+        <v>551600</v>
       </c>
       <c r="E27" s="3">
-        <v>391600</v>
+        <v>394700</v>
       </c>
       <c r="F27" s="3">
-        <v>-298200</v>
+        <v>-300400</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H27" s="3">
         <v>-3400</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45700</v>
+        <v>-46000</v>
       </c>
       <c r="E32" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="F32" s="3">
         <v>-2400</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>547400</v>
+        <v>551600</v>
       </c>
       <c r="E33" s="3">
-        <v>391600</v>
+        <v>394700</v>
       </c>
       <c r="F33" s="3">
-        <v>-298200</v>
+        <v>-300400</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H33" s="3">
         <v>-3400</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>547400</v>
+        <v>551600</v>
       </c>
       <c r="E35" s="3">
-        <v>391600</v>
+        <v>394700</v>
       </c>
       <c r="F35" s="3">
-        <v>-298200</v>
+        <v>-300400</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H35" s="3">
         <v>-3400</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>691700</v>
+        <v>697000</v>
       </c>
       <c r="E41" s="3">
-        <v>330000</v>
+        <v>332600</v>
       </c>
       <c r="F41" s="3">
-        <v>226400</v>
+        <v>228100</v>
       </c>
       <c r="G41" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2158200</v>
+        <v>2174800</v>
       </c>
       <c r="E43" s="3">
-        <v>2204700</v>
+        <v>2221600</v>
       </c>
       <c r="F43" s="3">
-        <v>692600</v>
+        <v>697900</v>
       </c>
       <c r="G43" s="3">
-        <v>245900</v>
+        <v>247700</v>
       </c>
       <c r="H43" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>574900</v>
+        <v>579300</v>
       </c>
       <c r="E45" s="3">
-        <v>518700</v>
+        <v>522700</v>
       </c>
       <c r="F45" s="3">
-        <v>230500</v>
+        <v>232300</v>
       </c>
       <c r="G45" s="3">
-        <v>81700</v>
+        <v>82300</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3424900</v>
+        <v>3451200</v>
       </c>
       <c r="E46" s="3">
-        <v>3053500</v>
+        <v>3076900</v>
       </c>
       <c r="F46" s="3">
-        <v>1149500</v>
+        <v>1158300</v>
       </c>
       <c r="G46" s="3">
-        <v>400900</v>
+        <v>404000</v>
       </c>
       <c r="H46" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>163000</v>
+        <v>164200</v>
       </c>
       <c r="E47" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -1920,7 +1920,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>219000</v>
+        <v>220600</v>
       </c>
       <c r="E52" s="3">
-        <v>109200</v>
+        <v>110000</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3818100</v>
+        <v>3847300</v>
       </c>
       <c r="E54" s="3">
-        <v>3186900</v>
+        <v>3211300</v>
       </c>
       <c r="F54" s="3">
-        <v>1150700</v>
+        <v>1159500</v>
       </c>
       <c r="G54" s="3">
-        <v>431100</v>
+        <v>434400</v>
       </c>
       <c r="H54" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="E58" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2066200</v>
+        <v>2082100</v>
       </c>
       <c r="E59" s="3">
-        <v>1482200</v>
+        <v>1493500</v>
       </c>
       <c r="F59" s="3">
-        <v>453100</v>
+        <v>456500</v>
       </c>
       <c r="G59" s="3">
-        <v>368100</v>
+        <v>371000</v>
       </c>
       <c r="H59" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2095500</v>
+        <v>2111500</v>
       </c>
       <c r="E60" s="3">
-        <v>1513500</v>
+        <v>1525100</v>
       </c>
       <c r="F60" s="3">
-        <v>453100</v>
+        <v>456500</v>
       </c>
       <c r="G60" s="3">
-        <v>368100</v>
+        <v>371000</v>
       </c>
       <c r="H60" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>238200</v>
+        <v>240100</v>
       </c>
       <c r="E62" s="3">
-        <v>543800</v>
+        <v>548000</v>
       </c>
       <c r="F62" s="3">
         <v>2500</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2333800</v>
+        <v>2351700</v>
       </c>
       <c r="E66" s="3">
-        <v>2057500</v>
+        <v>2073300</v>
       </c>
       <c r="F66" s="3">
-        <v>455500</v>
+        <v>459000</v>
       </c>
       <c r="G66" s="3">
-        <v>368100</v>
+        <v>371000</v>
       </c>
       <c r="H66" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>647800</v>
+        <v>652700</v>
       </c>
       <c r="E72" s="3">
-        <v>324300</v>
+        <v>326800</v>
       </c>
       <c r="F72" s="3">
-        <v>-67400</v>
+        <v>-67900</v>
       </c>
       <c r="G72" s="3">
-        <v>-29500</v>
+        <v>-29700</v>
       </c>
       <c r="H72" s="3">
         <v>-3400</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1484300</v>
+        <v>1495700</v>
       </c>
       <c r="E76" s="3">
-        <v>1129300</v>
+        <v>1138000</v>
       </c>
       <c r="F76" s="3">
-        <v>695200</v>
+        <v>700500</v>
       </c>
       <c r="G76" s="3">
-        <v>62900</v>
+        <v>63400</v>
       </c>
       <c r="H76" s="3">
         <v>-3400</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>547400</v>
+        <v>551600</v>
       </c>
       <c r="E81" s="3">
-        <v>391600</v>
+        <v>394700</v>
       </c>
       <c r="F81" s="3">
-        <v>-298200</v>
+        <v>-300400</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="H81" s="3">
         <v>-3400</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>833800</v>
+        <v>840200</v>
       </c>
       <c r="E89" s="3">
-        <v>465500</v>
+        <v>469000</v>
       </c>
       <c r="F89" s="3">
-        <v>44600</v>
+        <v>45000</v>
       </c>
       <c r="G89" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H89" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>139800</v>
+        <v>140800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1387200</v>
+        <v>-1397800</v>
       </c>
       <c r="F94" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="G94" s="3">
-        <v>-188500</v>
+        <v>-190000</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-513900</v>
+        <v>-517800</v>
       </c>
       <c r="E100" s="3">
-        <v>1206700</v>
+        <v>1216000</v>
       </c>
       <c r="F100" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="G100" s="3">
-        <v>354700</v>
+        <v>357400</v>
       </c>
       <c r="H100" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>460000</v>
+        <v>463600</v>
       </c>
       <c r="E102" s="3">
-        <v>285300</v>
+        <v>287500</v>
       </c>
       <c r="F102" s="3">
-        <v>165500</v>
+        <v>166800</v>
       </c>
       <c r="G102" s="3">
-        <v>148800</v>
+        <v>149900</v>
       </c>
       <c r="H102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2139800</v>
+        <v>2451400</v>
       </c>
       <c r="E8" s="3">
-        <v>1454500</v>
+        <v>1998800</v>
       </c>
       <c r="F8" s="3">
-        <v>701600</v>
+        <v>1358600</v>
       </c>
       <c r="G8" s="3">
-        <v>124300</v>
+        <v>655300</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>116100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>252500</v>
+        <v>331900</v>
       </c>
       <c r="E9" s="3">
-        <v>170900</v>
+        <v>235900</v>
       </c>
       <c r="F9" s="3">
-        <v>115000</v>
+        <v>159600</v>
       </c>
       <c r="G9" s="3">
-        <v>19200</v>
+        <v>107400</v>
       </c>
       <c r="H9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1887300</v>
+        <v>2119600</v>
       </c>
       <c r="E10" s="3">
-        <v>1283600</v>
+        <v>1762900</v>
       </c>
       <c r="F10" s="3">
-        <v>586600</v>
+        <v>1199000</v>
       </c>
       <c r="G10" s="3">
-        <v>105100</v>
+        <v>547900</v>
       </c>
       <c r="H10" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>98200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,14 +961,14 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1541900</v>
+        <v>1451400</v>
       </c>
       <c r="E17" s="3">
-        <v>998000</v>
+        <v>1440300</v>
       </c>
       <c r="F17" s="3">
-        <v>442100</v>
+        <v>932200</v>
       </c>
       <c r="G17" s="3">
-        <v>91100</v>
+        <v>413000</v>
       </c>
       <c r="H17" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>85100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>597900</v>
+        <v>1000000</v>
       </c>
       <c r="E18" s="3">
-        <v>456500</v>
+        <v>558500</v>
       </c>
       <c r="F18" s="3">
-        <v>259400</v>
+        <v>426400</v>
       </c>
       <c r="G18" s="3">
-        <v>33200</v>
+        <v>242300</v>
       </c>
       <c r="H18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>31000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46000</v>
+        <v>34900</v>
       </c>
       <c r="E20" s="3">
-        <v>18200</v>
+        <v>43000</v>
       </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>649600</v>
+        <v>1044700</v>
       </c>
       <c r="E21" s="3">
-        <v>475900</v>
+        <v>606900</v>
       </c>
       <c r="F21" s="3">
-        <v>262400</v>
+        <v>444500</v>
       </c>
       <c r="G21" s="3">
-        <v>33800</v>
+        <v>245100</v>
       </c>
       <c r="H21" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>31600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,20 +1152,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1146,32 +1185,35 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>643900</v>
+        <v>1034900</v>
       </c>
       <c r="E23" s="3">
-        <v>468100</v>
+        <v>601500</v>
       </c>
       <c r="F23" s="3">
-        <v>261800</v>
+        <v>437300</v>
       </c>
       <c r="G23" s="3">
-        <v>33600</v>
+        <v>244600</v>
       </c>
       <c r="H23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>31400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92500</v>
+        <v>185400</v>
       </c>
       <c r="E24" s="3">
-        <v>73500</v>
+        <v>86400</v>
       </c>
       <c r="F24" s="3">
-        <v>73600</v>
+        <v>68700</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>68700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>551500</v>
+        <v>849500</v>
       </c>
       <c r="E26" s="3">
-        <v>394600</v>
+        <v>515100</v>
       </c>
       <c r="F26" s="3">
-        <v>188300</v>
+        <v>368600</v>
       </c>
       <c r="G26" s="3">
-        <v>26000</v>
+        <v>175800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>551600</v>
+        <v>852000</v>
       </c>
       <c r="E27" s="3">
-        <v>394700</v>
+        <v>515300</v>
       </c>
       <c r="F27" s="3">
-        <v>-300400</v>
+        <v>368600</v>
       </c>
       <c r="G27" s="3">
-        <v>26000</v>
+        <v>-280600</v>
       </c>
       <c r="H27" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46000</v>
+        <v>-34900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18200</v>
+        <v>-43000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-17000</v>
       </c>
       <c r="G32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>551600</v>
+        <v>852000</v>
       </c>
       <c r="E33" s="3">
-        <v>394700</v>
+        <v>515300</v>
       </c>
       <c r="F33" s="3">
-        <v>-300400</v>
+        <v>368600</v>
       </c>
       <c r="G33" s="3">
-        <v>26000</v>
+        <v>-280600</v>
       </c>
       <c r="H33" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>551600</v>
+        <v>852000</v>
       </c>
       <c r="E35" s="3">
-        <v>394700</v>
+        <v>515300</v>
       </c>
       <c r="F35" s="3">
-        <v>-300400</v>
+        <v>368600</v>
       </c>
       <c r="G35" s="3">
-        <v>26000</v>
+        <v>-280600</v>
       </c>
       <c r="H35" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>697000</v>
+        <v>901300</v>
       </c>
       <c r="E41" s="3">
-        <v>332600</v>
+        <v>651100</v>
       </c>
       <c r="F41" s="3">
-        <v>228100</v>
+        <v>310700</v>
       </c>
       <c r="G41" s="3">
-        <v>73900</v>
+        <v>213100</v>
       </c>
       <c r="H41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>69000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2174800</v>
+        <v>2613900</v>
       </c>
       <c r="E43" s="3">
-        <v>2221600</v>
+        <v>2031400</v>
       </c>
       <c r="F43" s="3">
-        <v>697900</v>
+        <v>2075100</v>
       </c>
       <c r="G43" s="3">
-        <v>247700</v>
+        <v>651900</v>
       </c>
       <c r="H43" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>231400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,30 +1873,33 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>579300</v>
+        <v>575100</v>
       </c>
       <c r="E45" s="3">
-        <v>522700</v>
+        <v>541100</v>
       </c>
       <c r="F45" s="3">
-        <v>232300</v>
+        <v>488200</v>
       </c>
       <c r="G45" s="3">
-        <v>82300</v>
+        <v>217000</v>
       </c>
       <c r="H45" s="3">
+        <v>76900</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3451200</v>
+        <v>4090300</v>
       </c>
       <c r="E46" s="3">
-        <v>3076900</v>
+        <v>3223700</v>
       </c>
       <c r="F46" s="3">
-        <v>1158300</v>
+        <v>2874000</v>
       </c>
       <c r="G46" s="3">
-        <v>404000</v>
+        <v>1081900</v>
       </c>
       <c r="H46" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>377300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,20 +1945,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>164200</v>
+        <v>563200</v>
       </c>
       <c r="E47" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>153400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>11600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1874,33 +1978,36 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
-        <v>11400</v>
+        <v>10100</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>10700</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
-        <v>600</v>
-      </c>
       <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>220600</v>
+        <v>123000</v>
       </c>
       <c r="E52" s="3">
-        <v>110000</v>
+        <v>206100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>102800</v>
       </c>
       <c r="G52" s="3">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>27500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3847300</v>
+        <v>4937300</v>
       </c>
       <c r="E54" s="3">
-        <v>3211300</v>
+        <v>3593700</v>
       </c>
       <c r="F54" s="3">
-        <v>1159500</v>
+        <v>2999600</v>
       </c>
       <c r="G54" s="3">
-        <v>434400</v>
+        <v>1083100</v>
       </c>
       <c r="H54" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>405700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>13200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2171,21 +2301,24 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F58" s="3">
         <v>29500</v>
       </c>
-      <c r="E58" s="3">
-        <v>31600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,32 +2334,35 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2082100</v>
+        <v>2025600</v>
       </c>
       <c r="E59" s="3">
-        <v>1493500</v>
+        <v>1944800</v>
       </c>
       <c r="F59" s="3">
-        <v>456500</v>
+        <v>1395100</v>
       </c>
       <c r="G59" s="3">
-        <v>371000</v>
+        <v>426400</v>
       </c>
       <c r="H59" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>346500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>16400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2111500</v>
+        <v>2084100</v>
       </c>
       <c r="E60" s="3">
-        <v>1525100</v>
+        <v>1972300</v>
       </c>
       <c r="F60" s="3">
-        <v>456500</v>
+        <v>1424600</v>
       </c>
       <c r="G60" s="3">
-        <v>371000</v>
+        <v>426400</v>
       </c>
       <c r="H60" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>346500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>16400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,23 +2445,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>240100</v>
+        <v>610800</v>
       </c>
       <c r="E62" s="3">
-        <v>548000</v>
+        <v>224200</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>511900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2351700</v>
+        <v>2696900</v>
       </c>
       <c r="E66" s="3">
-        <v>2073300</v>
+        <v>2196700</v>
       </c>
       <c r="F66" s="3">
-        <v>459000</v>
+        <v>1936600</v>
       </c>
       <c r="G66" s="3">
-        <v>371000</v>
+        <v>428700</v>
       </c>
       <c r="H66" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>346500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>652700</v>
+        <v>1420900</v>
       </c>
       <c r="E72" s="3">
-        <v>326800</v>
+        <v>609700</v>
       </c>
       <c r="F72" s="3">
-        <v>-67900</v>
+        <v>305200</v>
       </c>
       <c r="G72" s="3">
-        <v>-29700</v>
+        <v>-63400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-27700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1495700</v>
+        <v>2240400</v>
       </c>
       <c r="E76" s="3">
-        <v>1138000</v>
+        <v>1397100</v>
       </c>
       <c r="F76" s="3">
-        <v>700500</v>
+        <v>1063000</v>
       </c>
       <c r="G76" s="3">
-        <v>63400</v>
+        <v>654300</v>
       </c>
       <c r="H76" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>59200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-3200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>551600</v>
+        <v>852000</v>
       </c>
       <c r="E81" s="3">
-        <v>394700</v>
+        <v>515300</v>
       </c>
       <c r="F81" s="3">
-        <v>-300400</v>
+        <v>368600</v>
       </c>
       <c r="G81" s="3">
-        <v>26000</v>
+        <v>-280600</v>
       </c>
       <c r="H81" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>24300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5700</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>840200</v>
+        <v>853200</v>
       </c>
       <c r="E89" s="3">
-        <v>469000</v>
+        <v>784800</v>
       </c>
       <c r="F89" s="3">
-        <v>45000</v>
+        <v>438100</v>
       </c>
       <c r="G89" s="3">
-        <v>-17500</v>
+        <v>42000</v>
       </c>
       <c r="H89" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-10100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,30 +3470,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>140800</v>
+        <v>-893600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1397800</v>
+        <v>131600</v>
       </c>
       <c r="F94" s="3">
-        <v>51700</v>
+        <v>-1305700</v>
       </c>
       <c r="G94" s="3">
-        <v>-190000</v>
+        <v>48300</v>
       </c>
       <c r="H94" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-517800</v>
+        <v>333600</v>
       </c>
       <c r="E100" s="3">
-        <v>1216000</v>
+        <v>-483700</v>
       </c>
       <c r="F100" s="3">
-        <v>72200</v>
+        <v>1135800</v>
       </c>
       <c r="G100" s="3">
-        <v>357400</v>
+        <v>67400</v>
       </c>
       <c r="H100" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>333800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>11400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,23 +3702,26 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>463600</v>
+        <v>292600</v>
       </c>
       <c r="E102" s="3">
-        <v>287500</v>
+        <v>433000</v>
       </c>
       <c r="F102" s="3">
-        <v>166800</v>
+        <v>268500</v>
       </c>
       <c r="G102" s="3">
-        <v>149900</v>
+        <v>155800</v>
       </c>
       <c r="H102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>140000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2451400</v>
+        <v>2429300</v>
       </c>
       <c r="E8" s="3">
-        <v>1998800</v>
+        <v>1980700</v>
       </c>
       <c r="F8" s="3">
-        <v>1358600</v>
+        <v>1346400</v>
       </c>
       <c r="G8" s="3">
-        <v>655300</v>
+        <v>649400</v>
       </c>
       <c r="H8" s="3">
-        <v>116100</v>
+        <v>115100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>331900</v>
+        <v>328900</v>
       </c>
       <c r="E9" s="3">
-        <v>235900</v>
+        <v>233700</v>
       </c>
       <c r="F9" s="3">
-        <v>159600</v>
+        <v>158200</v>
       </c>
       <c r="G9" s="3">
-        <v>107400</v>
+        <v>106500</v>
       </c>
       <c r="H9" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="I9" s="3">
         <v>1900</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2119600</v>
+        <v>2100400</v>
       </c>
       <c r="E10" s="3">
-        <v>1762900</v>
+        <v>1747000</v>
       </c>
       <c r="F10" s="3">
-        <v>1199000</v>
+        <v>1188200</v>
       </c>
       <c r="G10" s="3">
-        <v>547900</v>
+        <v>542900</v>
       </c>
       <c r="H10" s="3">
-        <v>98200</v>
+        <v>97300</v>
       </c>
       <c r="I10" s="3">
         <v>-1900</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1451400</v>
+        <v>1438300</v>
       </c>
       <c r="E17" s="3">
-        <v>1440300</v>
+        <v>1427300</v>
       </c>
       <c r="F17" s="3">
-        <v>932200</v>
+        <v>923800</v>
       </c>
       <c r="G17" s="3">
-        <v>413000</v>
+        <v>409200</v>
       </c>
       <c r="H17" s="3">
-        <v>85100</v>
+        <v>84300</v>
       </c>
       <c r="I17" s="3">
         <v>4400</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1000000</v>
+        <v>991000</v>
       </c>
       <c r="E18" s="3">
-        <v>558500</v>
+        <v>553500</v>
       </c>
       <c r="F18" s="3">
-        <v>426400</v>
+        <v>422600</v>
       </c>
       <c r="G18" s="3">
-        <v>242300</v>
+        <v>240100</v>
       </c>
       <c r="H18" s="3">
-        <v>31000</v>
+        <v>30800</v>
       </c>
       <c r="I18" s="3">
         <v>-4400</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34900</v>
+        <v>34500</v>
       </c>
       <c r="E20" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="F20" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="G20" s="3">
         <v>2200</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1044700</v>
+        <v>1035100</v>
       </c>
       <c r="E21" s="3">
-        <v>606900</v>
+        <v>601300</v>
       </c>
       <c r="F21" s="3">
-        <v>444500</v>
+        <v>440500</v>
       </c>
       <c r="G21" s="3">
-        <v>245100</v>
+        <v>242900</v>
       </c>
       <c r="H21" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="I21" s="3">
         <v>-4400</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1034900</v>
+        <v>1025500</v>
       </c>
       <c r="E23" s="3">
-        <v>601500</v>
+        <v>596100</v>
       </c>
       <c r="F23" s="3">
-        <v>437300</v>
+        <v>433300</v>
       </c>
       <c r="G23" s="3">
-        <v>244600</v>
+        <v>242400</v>
       </c>
       <c r="H23" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="I23" s="3">
         <v>-4400</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>185400</v>
+        <v>183700</v>
       </c>
       <c r="E24" s="3">
-        <v>86400</v>
+        <v>85600</v>
       </c>
       <c r="F24" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="G24" s="3">
-        <v>68700</v>
+        <v>68100</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="3">
         <v>-1200</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>849500</v>
+        <v>841800</v>
       </c>
       <c r="E26" s="3">
-        <v>515100</v>
+        <v>510500</v>
       </c>
       <c r="F26" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="G26" s="3">
-        <v>175800</v>
+        <v>174300</v>
       </c>
       <c r="H26" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I26" s="3">
         <v>-3200</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>852000</v>
+        <v>844300</v>
       </c>
       <c r="E27" s="3">
-        <v>515300</v>
+        <v>510600</v>
       </c>
       <c r="F27" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="G27" s="3">
-        <v>-280600</v>
+        <v>-278100</v>
       </c>
       <c r="H27" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I27" s="3">
         <v>-3200</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34900</v>
+        <v>-34500</v>
       </c>
       <c r="E32" s="3">
-        <v>-43000</v>
+        <v>-42600</v>
       </c>
       <c r="F32" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="G32" s="3">
         <v>-2200</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>852000</v>
+        <v>844300</v>
       </c>
       <c r="E33" s="3">
-        <v>515300</v>
+        <v>510600</v>
       </c>
       <c r="F33" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="G33" s="3">
-        <v>-280600</v>
+        <v>-278100</v>
       </c>
       <c r="H33" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I33" s="3">
         <v>-3200</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>852000</v>
+        <v>844300</v>
       </c>
       <c r="E35" s="3">
-        <v>515300</v>
+        <v>510600</v>
       </c>
       <c r="F35" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="G35" s="3">
-        <v>-280600</v>
+        <v>-278100</v>
       </c>
       <c r="H35" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I35" s="3">
         <v>-3200</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>901300</v>
+        <v>893200</v>
       </c>
       <c r="E41" s="3">
-        <v>651100</v>
+        <v>645200</v>
       </c>
       <c r="F41" s="3">
-        <v>310700</v>
+        <v>307800</v>
       </c>
       <c r="G41" s="3">
-        <v>213100</v>
+        <v>211100</v>
       </c>
       <c r="H41" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2613900</v>
+        <v>2590300</v>
       </c>
       <c r="E43" s="3">
-        <v>2031400</v>
+        <v>2013100</v>
       </c>
       <c r="F43" s="3">
-        <v>2075100</v>
+        <v>2056400</v>
       </c>
       <c r="G43" s="3">
-        <v>651900</v>
+        <v>646000</v>
       </c>
       <c r="H43" s="3">
-        <v>231400</v>
+        <v>229300</v>
       </c>
       <c r="I43" s="3">
         <v>10000</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>575100</v>
+        <v>569900</v>
       </c>
       <c r="E45" s="3">
-        <v>541100</v>
+        <v>536300</v>
       </c>
       <c r="F45" s="3">
-        <v>488200</v>
+        <v>483800</v>
       </c>
       <c r="G45" s="3">
-        <v>217000</v>
+        <v>215000</v>
       </c>
       <c r="H45" s="3">
-        <v>76900</v>
+        <v>76200</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4090300</v>
+        <v>4053400</v>
       </c>
       <c r="E46" s="3">
-        <v>3223700</v>
+        <v>3194600</v>
       </c>
       <c r="F46" s="3">
-        <v>2874000</v>
+        <v>2848100</v>
       </c>
       <c r="G46" s="3">
-        <v>1081900</v>
+        <v>1072200</v>
       </c>
       <c r="H46" s="3">
-        <v>377300</v>
+        <v>373900</v>
       </c>
       <c r="I46" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>563200</v>
+        <v>558100</v>
       </c>
       <c r="E47" s="3">
-        <v>153400</v>
+        <v>152000</v>
       </c>
       <c r="F47" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10000</v>
       </c>
-      <c r="E48" s="3">
-        <v>10100</v>
-      </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150900</v>
+        <v>149500</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>123000</v>
+        <v>121900</v>
       </c>
       <c r="E52" s="3">
-        <v>206100</v>
+        <v>204200</v>
       </c>
       <c r="F52" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4937300</v>
+        <v>4892700</v>
       </c>
       <c r="E54" s="3">
-        <v>3593700</v>
+        <v>3561300</v>
       </c>
       <c r="F54" s="3">
-        <v>2999600</v>
+        <v>2972500</v>
       </c>
       <c r="G54" s="3">
-        <v>1083100</v>
+        <v>1073300</v>
       </c>
       <c r="H54" s="3">
-        <v>405700</v>
+        <v>402100</v>
       </c>
       <c r="I54" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58600</v>
+        <v>58100</v>
       </c>
       <c r="E58" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="F58" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2025600</v>
+        <v>2007300</v>
       </c>
       <c r="E59" s="3">
-        <v>1944800</v>
+        <v>1927300</v>
       </c>
       <c r="F59" s="3">
-        <v>1395100</v>
+        <v>1382500</v>
       </c>
       <c r="G59" s="3">
-        <v>426400</v>
+        <v>422600</v>
       </c>
       <c r="H59" s="3">
-        <v>346500</v>
+        <v>343400</v>
       </c>
       <c r="I59" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2084100</v>
+        <v>2065300</v>
       </c>
       <c r="E60" s="3">
-        <v>1972300</v>
+        <v>1954500</v>
       </c>
       <c r="F60" s="3">
-        <v>1424600</v>
+        <v>1411700</v>
       </c>
       <c r="G60" s="3">
-        <v>426400</v>
+        <v>422600</v>
       </c>
       <c r="H60" s="3">
-        <v>346500</v>
+        <v>343400</v>
       </c>
       <c r="I60" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>610800</v>
+        <v>605300</v>
       </c>
       <c r="E62" s="3">
-        <v>224200</v>
+        <v>222200</v>
       </c>
       <c r="F62" s="3">
-        <v>511900</v>
+        <v>507300</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2696900</v>
+        <v>2672500</v>
       </c>
       <c r="E66" s="3">
-        <v>2196700</v>
+        <v>2176800</v>
       </c>
       <c r="F66" s="3">
-        <v>1936600</v>
+        <v>1919100</v>
       </c>
       <c r="G66" s="3">
-        <v>428700</v>
+        <v>424900</v>
       </c>
       <c r="H66" s="3">
-        <v>346500</v>
+        <v>343400</v>
       </c>
       <c r="I66" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1420900</v>
+        <v>1408100</v>
       </c>
       <c r="E72" s="3">
-        <v>609700</v>
+        <v>604200</v>
       </c>
       <c r="F72" s="3">
-        <v>305200</v>
+        <v>302500</v>
       </c>
       <c r="G72" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="H72" s="3">
-        <v>-27700</v>
+        <v>-27500</v>
       </c>
       <c r="I72" s="3">
         <v>-3200</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2240400</v>
+        <v>2220200</v>
       </c>
       <c r="E76" s="3">
-        <v>1397100</v>
+        <v>1384400</v>
       </c>
       <c r="F76" s="3">
-        <v>1063000</v>
+        <v>1053400</v>
       </c>
       <c r="G76" s="3">
-        <v>654300</v>
+        <v>648400</v>
       </c>
       <c r="H76" s="3">
-        <v>59200</v>
+        <v>58700</v>
       </c>
       <c r="I76" s="3">
         <v>-3200</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>852000</v>
+        <v>844300</v>
       </c>
       <c r="E81" s="3">
-        <v>515300</v>
+        <v>510600</v>
       </c>
       <c r="F81" s="3">
-        <v>368600</v>
+        <v>365300</v>
       </c>
       <c r="G81" s="3">
-        <v>-280600</v>
+        <v>-278100</v>
       </c>
       <c r="H81" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="I81" s="3">
         <v>-3200</v>
@@ -3104,7 +3104,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E83" s="3">
         <v>5300</v>
@@ -3113,7 +3113,7 @@
         <v>1100</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>853200</v>
+        <v>845500</v>
       </c>
       <c r="E89" s="3">
-        <v>784800</v>
+        <v>777700</v>
       </c>
       <c r="F89" s="3">
-        <v>438100</v>
+        <v>434200</v>
       </c>
       <c r="G89" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="H89" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="I89" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,19 +3375,19 @@
         <v>-3700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-1000</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-893600</v>
+        <v>-885600</v>
       </c>
       <c r="E94" s="3">
-        <v>131600</v>
+        <v>130400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1305700</v>
+        <v>-1293900</v>
       </c>
       <c r="G94" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="H94" s="3">
-        <v>-177500</v>
+        <v>-175900</v>
       </c>
       <c r="I94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>333600</v>
+        <v>330600</v>
       </c>
       <c r="E100" s="3">
-        <v>-483700</v>
+        <v>-479300</v>
       </c>
       <c r="F100" s="3">
-        <v>1135800</v>
+        <v>1125600</v>
       </c>
       <c r="G100" s="3">
-        <v>67400</v>
+        <v>66800</v>
       </c>
       <c r="H100" s="3">
-        <v>333800</v>
+        <v>330800</v>
       </c>
       <c r="I100" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>292600</v>
+        <v>290000</v>
       </c>
       <c r="E102" s="3">
-        <v>433000</v>
+        <v>429100</v>
       </c>
       <c r="F102" s="3">
-        <v>268500</v>
+        <v>266100</v>
       </c>
       <c r="G102" s="3">
-        <v>155800</v>
+        <v>154400</v>
       </c>
       <c r="H102" s="3">
-        <v>140000</v>
+        <v>138800</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2429300</v>
+        <v>2315700</v>
       </c>
       <c r="E8" s="3">
-        <v>1980700</v>
+        <v>1888100</v>
       </c>
       <c r="F8" s="3">
-        <v>1346400</v>
+        <v>1283400</v>
       </c>
       <c r="G8" s="3">
-        <v>649400</v>
+        <v>619000</v>
       </c>
       <c r="H8" s="3">
-        <v>115100</v>
+        <v>109700</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>328900</v>
+        <v>313500</v>
       </c>
       <c r="E9" s="3">
-        <v>233700</v>
+        <v>222800</v>
       </c>
       <c r="F9" s="3">
-        <v>158200</v>
+        <v>150800</v>
       </c>
       <c r="G9" s="3">
-        <v>106500</v>
+        <v>101500</v>
       </c>
       <c r="H9" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="I9" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2100400</v>
+        <v>2002200</v>
       </c>
       <c r="E10" s="3">
-        <v>1747000</v>
+        <v>1665300</v>
       </c>
       <c r="F10" s="3">
-        <v>1188200</v>
+        <v>1132600</v>
       </c>
       <c r="G10" s="3">
-        <v>542900</v>
+        <v>517500</v>
       </c>
       <c r="H10" s="3">
-        <v>97300</v>
+        <v>92800</v>
       </c>
       <c r="I10" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1438300</v>
+        <v>1371000</v>
       </c>
       <c r="E17" s="3">
-        <v>1427300</v>
+        <v>1360500</v>
       </c>
       <c r="F17" s="3">
-        <v>923800</v>
+        <v>880600</v>
       </c>
       <c r="G17" s="3">
-        <v>409200</v>
+        <v>390100</v>
       </c>
       <c r="H17" s="3">
-        <v>84300</v>
+        <v>80400</v>
       </c>
       <c r="I17" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>991000</v>
+        <v>944600</v>
       </c>
       <c r="E18" s="3">
-        <v>553500</v>
+        <v>527600</v>
       </c>
       <c r="F18" s="3">
-        <v>422600</v>
+        <v>402800</v>
       </c>
       <c r="G18" s="3">
-        <v>240100</v>
+        <v>228900</v>
       </c>
       <c r="H18" s="3">
-        <v>30800</v>
+        <v>29300</v>
       </c>
       <c r="I18" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="E20" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="F20" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="G20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1035100</v>
+        <v>986700</v>
       </c>
       <c r="E21" s="3">
-        <v>601300</v>
+        <v>573200</v>
       </c>
       <c r="F21" s="3">
-        <v>440500</v>
+        <v>419900</v>
       </c>
       <c r="G21" s="3">
-        <v>242900</v>
+        <v>231500</v>
       </c>
       <c r="H21" s="3">
-        <v>31300</v>
+        <v>29800</v>
       </c>
       <c r="I21" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1025500</v>
+        <v>977600</v>
       </c>
       <c r="E23" s="3">
-        <v>596100</v>
+        <v>568200</v>
       </c>
       <c r="F23" s="3">
-        <v>433300</v>
+        <v>413000</v>
       </c>
       <c r="G23" s="3">
-        <v>242400</v>
+        <v>231000</v>
       </c>
       <c r="H23" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="I23" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>183700</v>
+        <v>175100</v>
       </c>
       <c r="E24" s="3">
-        <v>85600</v>
+        <v>81600</v>
       </c>
       <c r="F24" s="3">
-        <v>68000</v>
+        <v>64900</v>
       </c>
       <c r="G24" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="H24" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="I24" s="3">
         <v>-1200</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>841800</v>
+        <v>802400</v>
       </c>
       <c r="E26" s="3">
-        <v>510500</v>
+        <v>486600</v>
       </c>
       <c r="F26" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="G26" s="3">
-        <v>174300</v>
+        <v>166100</v>
       </c>
       <c r="H26" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>844300</v>
+        <v>804800</v>
       </c>
       <c r="E27" s="3">
-        <v>510600</v>
+        <v>486700</v>
       </c>
       <c r="F27" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="G27" s="3">
-        <v>-278100</v>
+        <v>-265100</v>
       </c>
       <c r="H27" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I27" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="E32" s="3">
-        <v>-42600</v>
+        <v>-40600</v>
       </c>
       <c r="F32" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="G32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>844300</v>
+        <v>804800</v>
       </c>
       <c r="E33" s="3">
-        <v>510600</v>
+        <v>486700</v>
       </c>
       <c r="F33" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="G33" s="3">
-        <v>-278100</v>
+        <v>-265100</v>
       </c>
       <c r="H33" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I33" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>844300</v>
+        <v>804800</v>
       </c>
       <c r="E35" s="3">
-        <v>510600</v>
+        <v>486700</v>
       </c>
       <c r="F35" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="G35" s="3">
-        <v>-278100</v>
+        <v>-265100</v>
       </c>
       <c r="H35" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I35" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>893200</v>
+        <v>851400</v>
       </c>
       <c r="E41" s="3">
-        <v>645200</v>
+        <v>615000</v>
       </c>
       <c r="F41" s="3">
-        <v>307800</v>
+        <v>293500</v>
       </c>
       <c r="G41" s="3">
-        <v>211100</v>
+        <v>201300</v>
       </c>
       <c r="H41" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2590300</v>
+        <v>2469200</v>
       </c>
       <c r="E43" s="3">
-        <v>2013100</v>
+        <v>1918900</v>
       </c>
       <c r="F43" s="3">
-        <v>2056400</v>
+        <v>1960200</v>
       </c>
       <c r="G43" s="3">
-        <v>646000</v>
+        <v>615800</v>
       </c>
       <c r="H43" s="3">
-        <v>229300</v>
+        <v>218600</v>
       </c>
       <c r="I43" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>569900</v>
+        <v>543200</v>
       </c>
       <c r="E45" s="3">
-        <v>536300</v>
+        <v>511200</v>
       </c>
       <c r="F45" s="3">
-        <v>483800</v>
+        <v>461200</v>
       </c>
       <c r="G45" s="3">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="H45" s="3">
-        <v>76200</v>
+        <v>72600</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4053400</v>
+        <v>3863800</v>
       </c>
       <c r="E46" s="3">
-        <v>3194600</v>
+        <v>3045100</v>
       </c>
       <c r="F46" s="3">
-        <v>2848100</v>
+        <v>2714900</v>
       </c>
       <c r="G46" s="3">
-        <v>1072200</v>
+        <v>1022000</v>
       </c>
       <c r="H46" s="3">
-        <v>373900</v>
+        <v>356400</v>
       </c>
       <c r="I46" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>558100</v>
+        <v>532000</v>
       </c>
       <c r="E47" s="3">
-        <v>152000</v>
+        <v>144900</v>
       </c>
       <c r="F47" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="E48" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="F48" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>121900</v>
+        <v>116200</v>
       </c>
       <c r="E52" s="3">
-        <v>204200</v>
+        <v>194700</v>
       </c>
       <c r="F52" s="3">
-        <v>101800</v>
+        <v>97100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4892700</v>
+        <v>4663900</v>
       </c>
       <c r="E54" s="3">
-        <v>3561300</v>
+        <v>3394700</v>
       </c>
       <c r="F54" s="3">
-        <v>2972500</v>
+        <v>2833500</v>
       </c>
       <c r="G54" s="3">
-        <v>1073300</v>
+        <v>1023100</v>
       </c>
       <c r="H54" s="3">
-        <v>402100</v>
+        <v>383300</v>
       </c>
       <c r="I54" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58100</v>
+        <v>55300</v>
       </c>
       <c r="E58" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="F58" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2007300</v>
+        <v>1913400</v>
       </c>
       <c r="E59" s="3">
-        <v>1927300</v>
+        <v>1837100</v>
       </c>
       <c r="F59" s="3">
-        <v>1382500</v>
+        <v>1317800</v>
       </c>
       <c r="G59" s="3">
-        <v>422600</v>
+        <v>402800</v>
       </c>
       <c r="H59" s="3">
-        <v>343400</v>
+        <v>327300</v>
       </c>
       <c r="I59" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2065300</v>
+        <v>1968700</v>
       </c>
       <c r="E60" s="3">
-        <v>1954500</v>
+        <v>1863100</v>
       </c>
       <c r="F60" s="3">
-        <v>1411700</v>
+        <v>1345700</v>
       </c>
       <c r="G60" s="3">
-        <v>422600</v>
+        <v>402800</v>
       </c>
       <c r="H60" s="3">
-        <v>343400</v>
+        <v>327300</v>
       </c>
       <c r="I60" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>605300</v>
+        <v>577000</v>
       </c>
       <c r="E62" s="3">
-        <v>222200</v>
+        <v>211800</v>
       </c>
       <c r="F62" s="3">
-        <v>507300</v>
+        <v>483500</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2672500</v>
+        <v>2547500</v>
       </c>
       <c r="E66" s="3">
-        <v>2176800</v>
+        <v>2075000</v>
       </c>
       <c r="F66" s="3">
-        <v>1919100</v>
+        <v>1829400</v>
       </c>
       <c r="G66" s="3">
-        <v>424900</v>
+        <v>405000</v>
       </c>
       <c r="H66" s="3">
-        <v>343400</v>
+        <v>327300</v>
       </c>
       <c r="I66" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1408100</v>
+        <v>1342200</v>
       </c>
       <c r="E72" s="3">
-        <v>604200</v>
+        <v>575900</v>
       </c>
       <c r="F72" s="3">
-        <v>302500</v>
+        <v>288300</v>
       </c>
       <c r="G72" s="3">
-        <v>-62800</v>
+        <v>-59900</v>
       </c>
       <c r="H72" s="3">
-        <v>-27500</v>
+        <v>-26200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2220200</v>
+        <v>2116400</v>
       </c>
       <c r="E76" s="3">
-        <v>1384400</v>
+        <v>1319700</v>
       </c>
       <c r="F76" s="3">
-        <v>1053400</v>
+        <v>1004100</v>
       </c>
       <c r="G76" s="3">
-        <v>648400</v>
+        <v>618100</v>
       </c>
       <c r="H76" s="3">
-        <v>58700</v>
+        <v>55900</v>
       </c>
       <c r="I76" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>844300</v>
+        <v>804800</v>
       </c>
       <c r="E81" s="3">
-        <v>510600</v>
+        <v>486700</v>
       </c>
       <c r="F81" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="G81" s="3">
-        <v>-278100</v>
+        <v>-265100</v>
       </c>
       <c r="H81" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="I81" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,10 +3104,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>845500</v>
+        <v>805900</v>
       </c>
       <c r="E89" s="3">
-        <v>777700</v>
+        <v>741400</v>
       </c>
       <c r="F89" s="3">
-        <v>434200</v>
+        <v>413900</v>
       </c>
       <c r="G89" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="H89" s="3">
-        <v>-16200</v>
+        <v>-15400</v>
       </c>
       <c r="I89" s="3">
-        <v>-10000</v>
+        <v>-9500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="G91" s="3">
         <v>-1200</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-885600</v>
+        <v>-844200</v>
       </c>
       <c r="E94" s="3">
-        <v>130400</v>
+        <v>124300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1293900</v>
+        <v>-1233400</v>
       </c>
       <c r="G94" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="H94" s="3">
-        <v>-175900</v>
+        <v>-167600</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>330600</v>
+        <v>315100</v>
       </c>
       <c r="E100" s="3">
-        <v>-479300</v>
+        <v>-456900</v>
       </c>
       <c r="F100" s="3">
-        <v>1125600</v>
+        <v>1072900</v>
       </c>
       <c r="G100" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="H100" s="3">
-        <v>330800</v>
+        <v>315400</v>
       </c>
       <c r="I100" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3718,10 +3718,10 @@
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>290000</v>
+        <v>276400</v>
       </c>
       <c r="E102" s="3">
-        <v>429100</v>
+        <v>409000</v>
       </c>
       <c r="F102" s="3">
-        <v>266100</v>
+        <v>253700</v>
       </c>
       <c r="G102" s="3">
-        <v>154400</v>
+        <v>147200</v>
       </c>
       <c r="H102" s="3">
-        <v>138800</v>
+        <v>132300</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2315700</v>
+        <v>2377500</v>
       </c>
       <c r="E8" s="3">
-        <v>1888100</v>
+        <v>2389200</v>
       </c>
       <c r="F8" s="3">
-        <v>1283400</v>
+        <v>1948100</v>
       </c>
       <c r="G8" s="3">
-        <v>619000</v>
+        <v>1324200</v>
       </c>
       <c r="H8" s="3">
-        <v>109700</v>
+        <v>638700</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>113200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>313500</v>
+        <v>340900</v>
       </c>
       <c r="E9" s="3">
-        <v>222800</v>
+        <v>323500</v>
       </c>
       <c r="F9" s="3">
-        <v>150800</v>
+        <v>229900</v>
       </c>
       <c r="G9" s="3">
-        <v>101500</v>
+        <v>155600</v>
       </c>
       <c r="H9" s="3">
-        <v>17000</v>
+        <v>104700</v>
       </c>
       <c r="I9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>17500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2002200</v>
+        <v>2036600</v>
       </c>
       <c r="E10" s="3">
-        <v>1665300</v>
+        <v>2065800</v>
       </c>
       <c r="F10" s="3">
-        <v>1132600</v>
+        <v>1718200</v>
       </c>
       <c r="G10" s="3">
-        <v>517500</v>
+        <v>1168600</v>
       </c>
       <c r="H10" s="3">
-        <v>92800</v>
+        <v>534000</v>
       </c>
       <c r="I10" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>95700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-1900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,14 +986,14 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1371000</v>
+        <v>1735200</v>
       </c>
       <c r="E17" s="3">
-        <v>1360500</v>
+        <v>1414600</v>
       </c>
       <c r="F17" s="3">
-        <v>880600</v>
+        <v>1403700</v>
       </c>
       <c r="G17" s="3">
-        <v>390100</v>
+        <v>908600</v>
       </c>
       <c r="H17" s="3">
-        <v>80400</v>
+        <v>402500</v>
       </c>
       <c r="I17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>82900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>944600</v>
+        <v>642300</v>
       </c>
       <c r="E18" s="3">
-        <v>527600</v>
+        <v>974600</v>
       </c>
       <c r="F18" s="3">
-        <v>402800</v>
+        <v>544300</v>
       </c>
       <c r="G18" s="3">
-        <v>228900</v>
+        <v>415600</v>
       </c>
       <c r="H18" s="3">
-        <v>29300</v>
+        <v>236200</v>
       </c>
       <c r="I18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32900</v>
+        <v>38800</v>
       </c>
       <c r="E20" s="3">
-        <v>40600</v>
+        <v>34000</v>
       </c>
       <c r="F20" s="3">
-        <v>16100</v>
+        <v>41900</v>
       </c>
       <c r="G20" s="3">
-        <v>2100</v>
+        <v>16600</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>986700</v>
+        <v>690600</v>
       </c>
       <c r="E21" s="3">
-        <v>573200</v>
+        <v>1013800</v>
       </c>
       <c r="F21" s="3">
-        <v>419900</v>
+        <v>587300</v>
       </c>
       <c r="G21" s="3">
-        <v>231500</v>
+        <v>432700</v>
       </c>
       <c r="H21" s="3">
-        <v>29800</v>
+        <v>238500</v>
       </c>
       <c r="I21" s="3">
-        <v>-4200</v>
+        <v>30600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,11 +1206,11 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1188,35 +1227,38 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>977600</v>
+        <v>681100</v>
       </c>
       <c r="E23" s="3">
-        <v>568200</v>
+        <v>1008600</v>
       </c>
       <c r="F23" s="3">
-        <v>413000</v>
+        <v>586200</v>
       </c>
       <c r="G23" s="3">
-        <v>231000</v>
+        <v>426200</v>
       </c>
       <c r="H23" s="3">
-        <v>29700</v>
+        <v>238400</v>
       </c>
       <c r="I23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>30600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,33 +1269,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>175100</v>
+        <v>105800</v>
       </c>
       <c r="E24" s="3">
-        <v>81600</v>
+        <v>180700</v>
       </c>
       <c r="F24" s="3">
-        <v>64900</v>
+        <v>84200</v>
       </c>
       <c r="G24" s="3">
-        <v>64900</v>
+        <v>66900</v>
       </c>
       <c r="H24" s="3">
-        <v>6700</v>
+        <v>67000</v>
       </c>
       <c r="I24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>802400</v>
+        <v>575300</v>
       </c>
       <c r="E26" s="3">
-        <v>486600</v>
+        <v>827900</v>
       </c>
       <c r="F26" s="3">
-        <v>348200</v>
+        <v>502100</v>
       </c>
       <c r="G26" s="3">
-        <v>166100</v>
+        <v>359200</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
+        <v>171400</v>
       </c>
       <c r="I26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>804800</v>
+        <v>578000</v>
       </c>
       <c r="E27" s="3">
-        <v>486700</v>
+        <v>830400</v>
       </c>
       <c r="F27" s="3">
-        <v>348200</v>
+        <v>502200</v>
       </c>
       <c r="G27" s="3">
-        <v>-265100</v>
+        <v>359300</v>
       </c>
       <c r="H27" s="3">
-        <v>22900</v>
+        <v>-273500</v>
       </c>
       <c r="I27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32900</v>
+        <v>-38800</v>
       </c>
       <c r="E32" s="3">
-        <v>-40600</v>
+        <v>-34000</v>
       </c>
       <c r="F32" s="3">
-        <v>-16100</v>
+        <v>-41900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2100</v>
+        <v>-16600</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>804800</v>
+        <v>578000</v>
       </c>
       <c r="E33" s="3">
-        <v>486700</v>
+        <v>830400</v>
       </c>
       <c r="F33" s="3">
-        <v>348200</v>
+        <v>502200</v>
       </c>
       <c r="G33" s="3">
-        <v>-265100</v>
+        <v>359300</v>
       </c>
       <c r="H33" s="3">
-        <v>22900</v>
+        <v>-273500</v>
       </c>
       <c r="I33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>804800</v>
+        <v>578000</v>
       </c>
       <c r="E35" s="3">
-        <v>486700</v>
+        <v>830400</v>
       </c>
       <c r="F35" s="3">
-        <v>348200</v>
+        <v>502200</v>
       </c>
       <c r="G35" s="3">
-        <v>-265100</v>
+        <v>359300</v>
       </c>
       <c r="H35" s="3">
-        <v>22900</v>
+        <v>-273500</v>
       </c>
       <c r="I35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,32 +1818,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>851400</v>
+        <v>1029100</v>
       </c>
       <c r="E41" s="3">
-        <v>615000</v>
+        <v>878400</v>
       </c>
       <c r="F41" s="3">
-        <v>293500</v>
+        <v>634600</v>
       </c>
       <c r="G41" s="3">
-        <v>201300</v>
+        <v>302800</v>
       </c>
       <c r="H41" s="3">
-        <v>65200</v>
+        <v>207600</v>
       </c>
       <c r="I41" s="3">
+        <v>67300</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2469200</v>
+        <v>3267600</v>
       </c>
       <c r="E43" s="3">
-        <v>1918900</v>
+        <v>2547600</v>
       </c>
       <c r="F43" s="3">
-        <v>1960200</v>
+        <v>1979900</v>
       </c>
       <c r="G43" s="3">
-        <v>615800</v>
+        <v>2022500</v>
       </c>
       <c r="H43" s="3">
-        <v>218600</v>
+        <v>635300</v>
       </c>
       <c r="I43" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>225500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,33 +1971,36 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>543200</v>
+        <v>592100</v>
       </c>
       <c r="E45" s="3">
-        <v>511200</v>
+        <v>560500</v>
       </c>
       <c r="F45" s="3">
-        <v>461200</v>
+        <v>527400</v>
       </c>
       <c r="G45" s="3">
-        <v>205000</v>
+        <v>475800</v>
       </c>
       <c r="H45" s="3">
-        <v>72600</v>
+        <v>211500</v>
       </c>
       <c r="I45" s="3">
+        <v>74900</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3863800</v>
+        <v>4897100</v>
       </c>
       <c r="E46" s="3">
-        <v>3045100</v>
+        <v>3986500</v>
       </c>
       <c r="F46" s="3">
-        <v>2714900</v>
+        <v>3141800</v>
       </c>
       <c r="G46" s="3">
-        <v>1022000</v>
+        <v>2801100</v>
       </c>
       <c r="H46" s="3">
-        <v>356400</v>
+        <v>1054500</v>
       </c>
       <c r="I46" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>367800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,23 +2049,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>532000</v>
+        <v>591800</v>
       </c>
       <c r="E47" s="3">
-        <v>144900</v>
+        <v>548900</v>
       </c>
       <c r="F47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>149500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>11300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1981,36 +2085,39 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9400</v>
+        <v>14800</v>
       </c>
       <c r="E48" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F48" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="G48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
-        <v>800</v>
-      </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>142500</v>
+        <v>144000</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>147000</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,33 +2244,36 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116200</v>
+        <v>146400</v>
       </c>
       <c r="E52" s="3">
-        <v>194700</v>
+        <v>119900</v>
       </c>
       <c r="F52" s="3">
-        <v>97100</v>
+        <v>200900</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100200</v>
       </c>
       <c r="H52" s="3">
-        <v>25900</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4663900</v>
+        <v>5794100</v>
       </c>
       <c r="E54" s="3">
-        <v>3394700</v>
+        <v>4812000</v>
       </c>
       <c r="F54" s="3">
-        <v>2833500</v>
+        <v>3502500</v>
       </c>
       <c r="G54" s="3">
-        <v>1023100</v>
+        <v>2923500</v>
       </c>
       <c r="H54" s="3">
-        <v>383300</v>
+        <v>1055600</v>
       </c>
       <c r="I54" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>395400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2304,23 +2434,26 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55300</v>
+        <v>21500</v>
       </c>
       <c r="E58" s="3">
-        <v>26000</v>
+        <v>57100</v>
       </c>
       <c r="F58" s="3">
-        <v>27800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>26800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>28700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2337,35 +2470,38 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1913400</v>
+        <v>2384100</v>
       </c>
       <c r="E59" s="3">
-        <v>1837100</v>
+        <v>1974100</v>
       </c>
       <c r="F59" s="3">
-        <v>1317800</v>
+        <v>1895500</v>
       </c>
       <c r="G59" s="3">
-        <v>402800</v>
+        <v>1359700</v>
       </c>
       <c r="H59" s="3">
-        <v>327300</v>
+        <v>415600</v>
       </c>
       <c r="I59" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>337700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>16000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1968700</v>
+        <v>2405600</v>
       </c>
       <c r="E60" s="3">
-        <v>1863100</v>
+        <v>2031200</v>
       </c>
       <c r="F60" s="3">
-        <v>1345700</v>
+        <v>1922300</v>
       </c>
       <c r="G60" s="3">
-        <v>402800</v>
+        <v>1388400</v>
       </c>
       <c r="H60" s="3">
-        <v>327300</v>
+        <v>415600</v>
       </c>
       <c r="I60" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>337700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,26 +2590,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>577000</v>
+        <v>669500</v>
       </c>
       <c r="E62" s="3">
-        <v>211800</v>
+        <v>595300</v>
       </c>
       <c r="F62" s="3">
-        <v>483500</v>
+        <v>218500</v>
       </c>
       <c r="G62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>498900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2547500</v>
+        <v>3087300</v>
       </c>
       <c r="E66" s="3">
-        <v>2075000</v>
+        <v>2628400</v>
       </c>
       <c r="F66" s="3">
-        <v>1829400</v>
+        <v>2140900</v>
       </c>
       <c r="G66" s="3">
-        <v>405000</v>
+        <v>1887500</v>
       </c>
       <c r="H66" s="3">
-        <v>327300</v>
+        <v>417900</v>
       </c>
       <c r="I66" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>337700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>16000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1342200</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>575900</v>
+        <v>1384900</v>
       </c>
       <c r="F72" s="3">
-        <v>288300</v>
+        <v>594200</v>
       </c>
       <c r="G72" s="3">
-        <v>-59900</v>
+        <v>297500</v>
       </c>
       <c r="H72" s="3">
-        <v>-26200</v>
+        <v>-61800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-27000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2116400</v>
+        <v>2706800</v>
       </c>
       <c r="E76" s="3">
-        <v>1319700</v>
+        <v>2183600</v>
       </c>
       <c r="F76" s="3">
-        <v>1004100</v>
+        <v>1361600</v>
       </c>
       <c r="G76" s="3">
-        <v>618100</v>
+        <v>1036000</v>
       </c>
       <c r="H76" s="3">
-        <v>55900</v>
+        <v>637700</v>
       </c>
       <c r="I76" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>57700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-3100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>804800</v>
+        <v>578000</v>
       </c>
       <c r="E81" s="3">
-        <v>486700</v>
+        <v>830400</v>
       </c>
       <c r="F81" s="3">
-        <v>348200</v>
+        <v>502200</v>
       </c>
       <c r="G81" s="3">
-        <v>-265100</v>
+        <v>359300</v>
       </c>
       <c r="H81" s="3">
-        <v>22900</v>
+        <v>-273500</v>
       </c>
       <c r="I81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>9200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="F83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>805900</v>
+        <v>850600</v>
       </c>
       <c r="E89" s="3">
-        <v>741400</v>
+        <v>831500</v>
       </c>
       <c r="F89" s="3">
-        <v>413900</v>
+        <v>764900</v>
       </c>
       <c r="G89" s="3">
-        <v>39700</v>
+        <v>427000</v>
       </c>
       <c r="H89" s="3">
-        <v>-15400</v>
+        <v>40900</v>
       </c>
       <c r="I89" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-15900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-9800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-3500</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-3600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3600</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,33 +3699,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-844200</v>
+        <v>-1056500</v>
       </c>
       <c r="E94" s="3">
-        <v>124300</v>
+        <v>-871000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1233400</v>
+        <v>128200</v>
       </c>
       <c r="G94" s="3">
-        <v>45600</v>
+        <v>-1272500</v>
       </c>
       <c r="H94" s="3">
-        <v>-167600</v>
+        <v>47100</v>
       </c>
       <c r="I94" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>315100</v>
+        <v>460200</v>
       </c>
       <c r="E100" s="3">
-        <v>-456900</v>
+        <v>325100</v>
       </c>
       <c r="F100" s="3">
-        <v>1072900</v>
+        <v>-471400</v>
       </c>
       <c r="G100" s="3">
-        <v>63700</v>
+        <v>1107000</v>
       </c>
       <c r="H100" s="3">
-        <v>315400</v>
+        <v>65700</v>
       </c>
       <c r="I100" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>325400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>11100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,26 +3950,29 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3741,33 +3989,36 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>276400</v>
+        <v>251700</v>
       </c>
       <c r="E102" s="3">
-        <v>409000</v>
+        <v>285200</v>
       </c>
       <c r="F102" s="3">
-        <v>253700</v>
+        <v>422000</v>
       </c>
       <c r="G102" s="3">
-        <v>147200</v>
+        <v>261700</v>
       </c>
       <c r="H102" s="3">
-        <v>132300</v>
+        <v>151800</v>
       </c>
       <c r="I102" s="3">
+        <v>136500</v>
+      </c>
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2377500</v>
+        <v>2353100</v>
       </c>
       <c r="E8" s="3">
-        <v>2389200</v>
+        <v>2364800</v>
       </c>
       <c r="F8" s="3">
-        <v>1948100</v>
+        <v>1928100</v>
       </c>
       <c r="G8" s="3">
-        <v>1324200</v>
+        <v>1310600</v>
       </c>
       <c r="H8" s="3">
-        <v>638700</v>
+        <v>632100</v>
       </c>
       <c r="I8" s="3">
-        <v>113200</v>
+        <v>112000</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>340900</v>
+        <v>337400</v>
       </c>
       <c r="E9" s="3">
-        <v>323500</v>
+        <v>320100</v>
       </c>
       <c r="F9" s="3">
-        <v>229900</v>
+        <v>227500</v>
       </c>
       <c r="G9" s="3">
-        <v>155600</v>
+        <v>154000</v>
       </c>
       <c r="H9" s="3">
-        <v>104700</v>
+        <v>103600</v>
       </c>
       <c r="I9" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="J9" s="3">
         <v>1900</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2036600</v>
+        <v>2015800</v>
       </c>
       <c r="E10" s="3">
-        <v>2065800</v>
+        <v>2044600</v>
       </c>
       <c r="F10" s="3">
-        <v>1718200</v>
+        <v>1700600</v>
       </c>
       <c r="G10" s="3">
-        <v>1168600</v>
+        <v>1156600</v>
       </c>
       <c r="H10" s="3">
-        <v>534000</v>
+        <v>528500</v>
       </c>
       <c r="I10" s="3">
-        <v>95700</v>
+        <v>94700</v>
       </c>
       <c r="J10" s="3">
         <v>-1900</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1735200</v>
+        <v>1717400</v>
       </c>
       <c r="E17" s="3">
-        <v>1414600</v>
+        <v>1400100</v>
       </c>
       <c r="F17" s="3">
-        <v>1403700</v>
+        <v>1389300</v>
       </c>
       <c r="G17" s="3">
-        <v>908600</v>
+        <v>899300</v>
       </c>
       <c r="H17" s="3">
-        <v>402500</v>
+        <v>398400</v>
       </c>
       <c r="I17" s="3">
-        <v>82900</v>
+        <v>82100</v>
       </c>
       <c r="J17" s="3">
         <v>4300</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>642300</v>
+        <v>635700</v>
       </c>
       <c r="E18" s="3">
-        <v>974600</v>
+        <v>964700</v>
       </c>
       <c r="F18" s="3">
-        <v>544300</v>
+        <v>538800</v>
       </c>
       <c r="G18" s="3">
-        <v>415600</v>
+        <v>411300</v>
       </c>
       <c r="H18" s="3">
-        <v>236200</v>
+        <v>233800</v>
       </c>
       <c r="I18" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="J18" s="3">
         <v>-4300</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="E20" s="3">
-        <v>34000</v>
+        <v>33600</v>
       </c>
       <c r="F20" s="3">
-        <v>41900</v>
+        <v>41400</v>
       </c>
       <c r="G20" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H20" s="3">
         <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>690600</v>
+        <v>685100</v>
       </c>
       <c r="E21" s="3">
-        <v>1013800</v>
+        <v>1007700</v>
       </c>
       <c r="F21" s="3">
-        <v>587300</v>
+        <v>585400</v>
       </c>
       <c r="G21" s="3">
-        <v>432700</v>
+        <v>428800</v>
       </c>
       <c r="H21" s="3">
-        <v>238500</v>
+        <v>236500</v>
       </c>
       <c r="I21" s="3">
-        <v>30600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>30500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>681100</v>
+        <v>674100</v>
       </c>
       <c r="E23" s="3">
-        <v>1008600</v>
+        <v>998300</v>
       </c>
       <c r="F23" s="3">
-        <v>586200</v>
+        <v>580200</v>
       </c>
       <c r="G23" s="3">
-        <v>426200</v>
+        <v>421800</v>
       </c>
       <c r="H23" s="3">
-        <v>238400</v>
+        <v>235900</v>
       </c>
       <c r="I23" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="J23" s="3">
         <v>-4300</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105800</v>
+        <v>104700</v>
       </c>
       <c r="E24" s="3">
-        <v>180700</v>
+        <v>178900</v>
       </c>
       <c r="F24" s="3">
-        <v>84200</v>
+        <v>83300</v>
       </c>
       <c r="G24" s="3">
-        <v>66900</v>
+        <v>66200</v>
       </c>
       <c r="H24" s="3">
-        <v>67000</v>
+        <v>66300</v>
       </c>
       <c r="I24" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J24" s="3">
         <v>-1200</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>575300</v>
+        <v>569400</v>
       </c>
       <c r="E26" s="3">
-        <v>827900</v>
+        <v>819400</v>
       </c>
       <c r="F26" s="3">
-        <v>502100</v>
+        <v>496900</v>
       </c>
       <c r="G26" s="3">
-        <v>359200</v>
+        <v>355600</v>
       </c>
       <c r="H26" s="3">
-        <v>171400</v>
+        <v>169600</v>
       </c>
       <c r="I26" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J26" s="3">
         <v>-3100</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>578000</v>
+        <v>572000</v>
       </c>
       <c r="E27" s="3">
-        <v>830400</v>
+        <v>821900</v>
       </c>
       <c r="F27" s="3">
-        <v>502200</v>
+        <v>497000</v>
       </c>
       <c r="G27" s="3">
-        <v>359300</v>
+        <v>355600</v>
       </c>
       <c r="H27" s="3">
-        <v>-273500</v>
+        <v>-270700</v>
       </c>
       <c r="I27" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J27" s="3">
         <v>-3100</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38800</v>
+        <v>-38400</v>
       </c>
       <c r="E32" s="3">
-        <v>-34000</v>
+        <v>-33600</v>
       </c>
       <c r="F32" s="3">
-        <v>-41900</v>
+        <v>-41400</v>
       </c>
       <c r="G32" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="H32" s="3">
         <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>578000</v>
+        <v>572000</v>
       </c>
       <c r="E33" s="3">
-        <v>830400</v>
+        <v>821900</v>
       </c>
       <c r="F33" s="3">
-        <v>502200</v>
+        <v>497000</v>
       </c>
       <c r="G33" s="3">
-        <v>359300</v>
+        <v>355600</v>
       </c>
       <c r="H33" s="3">
-        <v>-273500</v>
+        <v>-270700</v>
       </c>
       <c r="I33" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J33" s="3">
         <v>-3100</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>578000</v>
+        <v>572000</v>
       </c>
       <c r="E35" s="3">
-        <v>830400</v>
+        <v>821900</v>
       </c>
       <c r="F35" s="3">
-        <v>502200</v>
+        <v>497000</v>
       </c>
       <c r="G35" s="3">
-        <v>359300</v>
+        <v>355600</v>
       </c>
       <c r="H35" s="3">
-        <v>-273500</v>
+        <v>-270700</v>
       </c>
       <c r="I35" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J35" s="3">
         <v>-3100</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1029100</v>
+        <v>1018600</v>
       </c>
       <c r="E41" s="3">
-        <v>878400</v>
+        <v>869400</v>
       </c>
       <c r="F41" s="3">
-        <v>634600</v>
+        <v>628100</v>
       </c>
       <c r="G41" s="3">
-        <v>302800</v>
+        <v>299700</v>
       </c>
       <c r="H41" s="3">
-        <v>207600</v>
+        <v>205500</v>
       </c>
       <c r="I41" s="3">
-        <v>67300</v>
+        <v>66600</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
@@ -1864,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3267600</v>
+        <v>3234200</v>
       </c>
       <c r="E43" s="3">
-        <v>2547600</v>
+        <v>2521500</v>
       </c>
       <c r="F43" s="3">
-        <v>1979900</v>
+        <v>1959600</v>
       </c>
       <c r="G43" s="3">
-        <v>2022500</v>
+        <v>2001800</v>
       </c>
       <c r="H43" s="3">
-        <v>635300</v>
+        <v>628800</v>
       </c>
       <c r="I43" s="3">
-        <v>225500</v>
+        <v>223200</v>
       </c>
       <c r="J43" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>592100</v>
+        <v>586100</v>
       </c>
       <c r="E45" s="3">
-        <v>560500</v>
+        <v>554700</v>
       </c>
       <c r="F45" s="3">
-        <v>527400</v>
+        <v>522000</v>
       </c>
       <c r="G45" s="3">
-        <v>475800</v>
+        <v>471000</v>
       </c>
       <c r="H45" s="3">
-        <v>211500</v>
+        <v>209300</v>
       </c>
       <c r="I45" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4897100</v>
+        <v>4847000</v>
       </c>
       <c r="E46" s="3">
-        <v>3986500</v>
+        <v>3945700</v>
       </c>
       <c r="F46" s="3">
-        <v>3141800</v>
+        <v>3109700</v>
       </c>
       <c r="G46" s="3">
-        <v>2801100</v>
+        <v>2772400</v>
       </c>
       <c r="H46" s="3">
-        <v>1054500</v>
+        <v>1043700</v>
       </c>
       <c r="I46" s="3">
-        <v>367800</v>
+        <v>364000</v>
       </c>
       <c r="J46" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>591800</v>
+        <v>585700</v>
       </c>
       <c r="E47" s="3">
-        <v>548900</v>
+        <v>543200</v>
       </c>
       <c r="F47" s="3">
-        <v>149500</v>
+        <v>148000</v>
       </c>
       <c r="G47" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="E48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F48" s="3">
         <v>9700</v>
       </c>
-      <c r="F48" s="3">
-        <v>9800</v>
-      </c>
       <c r="G48" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144000</v>
+        <v>142600</v>
       </c>
       <c r="E49" s="3">
-        <v>147000</v>
+        <v>145500</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146400</v>
+        <v>144900</v>
       </c>
       <c r="E52" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="F52" s="3">
-        <v>200900</v>
+        <v>198800</v>
       </c>
       <c r="G52" s="3">
-        <v>100200</v>
+        <v>99100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5794100</v>
+        <v>5734800</v>
       </c>
       <c r="E54" s="3">
-        <v>4812000</v>
+        <v>4762700</v>
       </c>
       <c r="F54" s="3">
-        <v>3502500</v>
+        <v>3466700</v>
       </c>
       <c r="G54" s="3">
-        <v>2923500</v>
+        <v>2893500</v>
       </c>
       <c r="H54" s="3">
-        <v>1055600</v>
+        <v>1044800</v>
       </c>
       <c r="I54" s="3">
-        <v>395400</v>
+        <v>391400</v>
       </c>
       <c r="J54" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="E58" s="3">
-        <v>57100</v>
+        <v>56500</v>
       </c>
       <c r="F58" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="G58" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2384100</v>
+        <v>2359700</v>
       </c>
       <c r="E59" s="3">
-        <v>1974100</v>
+        <v>1953900</v>
       </c>
       <c r="F59" s="3">
-        <v>1895500</v>
+        <v>1876100</v>
       </c>
       <c r="G59" s="3">
-        <v>1359700</v>
+        <v>1345800</v>
       </c>
       <c r="H59" s="3">
-        <v>415600</v>
+        <v>411400</v>
       </c>
       <c r="I59" s="3">
-        <v>337700</v>
+        <v>334300</v>
       </c>
       <c r="J59" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2405600</v>
+        <v>2381000</v>
       </c>
       <c r="E60" s="3">
-        <v>2031200</v>
+        <v>2010500</v>
       </c>
       <c r="F60" s="3">
-        <v>1922300</v>
+        <v>1902600</v>
       </c>
       <c r="G60" s="3">
-        <v>1388400</v>
+        <v>1374200</v>
       </c>
       <c r="H60" s="3">
-        <v>415600</v>
+        <v>411400</v>
       </c>
       <c r="I60" s="3">
-        <v>337700</v>
+        <v>334300</v>
       </c>
       <c r="J60" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>669500</v>
+        <v>662700</v>
       </c>
       <c r="E62" s="3">
-        <v>595300</v>
+        <v>589200</v>
       </c>
       <c r="F62" s="3">
-        <v>218500</v>
+        <v>216300</v>
       </c>
       <c r="G62" s="3">
-        <v>498900</v>
+        <v>493800</v>
       </c>
       <c r="H62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3087300</v>
+        <v>3055700</v>
       </c>
       <c r="E66" s="3">
-        <v>2628400</v>
+        <v>2601500</v>
       </c>
       <c r="F66" s="3">
-        <v>2140900</v>
+        <v>2119000</v>
       </c>
       <c r="G66" s="3">
-        <v>1887500</v>
+        <v>1868200</v>
       </c>
       <c r="H66" s="3">
-        <v>417900</v>
+        <v>413600</v>
       </c>
       <c r="I66" s="3">
-        <v>337700</v>
+        <v>334300</v>
       </c>
       <c r="J66" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2967,23 +2967,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>1820000</v>
       </c>
       <c r="E72" s="3">
-        <v>1384900</v>
+        <v>1370700</v>
       </c>
       <c r="F72" s="3">
-        <v>594200</v>
+        <v>588200</v>
       </c>
       <c r="G72" s="3">
-        <v>297500</v>
+        <v>294400</v>
       </c>
       <c r="H72" s="3">
-        <v>-61800</v>
+        <v>-61200</v>
       </c>
       <c r="I72" s="3">
-        <v>-27000</v>
+        <v>-26800</v>
       </c>
       <c r="J72" s="3">
         <v>-3100</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2706800</v>
+        <v>2679100</v>
       </c>
       <c r="E76" s="3">
-        <v>2183600</v>
+        <v>2161200</v>
       </c>
       <c r="F76" s="3">
-        <v>1361600</v>
+        <v>1347700</v>
       </c>
       <c r="G76" s="3">
-        <v>1036000</v>
+        <v>1025400</v>
       </c>
       <c r="H76" s="3">
-        <v>637700</v>
+        <v>631200</v>
       </c>
       <c r="I76" s="3">
-        <v>57700</v>
+        <v>57100</v>
       </c>
       <c r="J76" s="3">
         <v>-3100</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>578000</v>
+        <v>572000</v>
       </c>
       <c r="E81" s="3">
-        <v>830400</v>
+        <v>821900</v>
       </c>
       <c r="F81" s="3">
-        <v>502200</v>
+        <v>497000</v>
       </c>
       <c r="G81" s="3">
-        <v>359300</v>
+        <v>355600</v>
       </c>
       <c r="H81" s="3">
-        <v>-273500</v>
+        <v>-270700</v>
       </c>
       <c r="I81" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="J81" s="3">
         <v>-3100</v>
@@ -3301,14 +3301,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>10900</v>
       </c>
       <c r="E83" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F83" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>850600</v>
+        <v>841900</v>
       </c>
       <c r="E89" s="3">
-        <v>831500</v>
+        <v>823000</v>
       </c>
       <c r="F89" s="3">
-        <v>764900</v>
+        <v>757100</v>
       </c>
       <c r="G89" s="3">
-        <v>427000</v>
+        <v>422600</v>
       </c>
       <c r="H89" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="I89" s="3">
-        <v>-15900</v>
+        <v>-15800</v>
       </c>
       <c r="J89" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3591,8 +3591,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
         <v>-3600</v>
@@ -3601,7 +3601,7 @@
         <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1056500</v>
+        <v>-1045700</v>
       </c>
       <c r="E94" s="3">
-        <v>-871000</v>
+        <v>-862000</v>
       </c>
       <c r="F94" s="3">
-        <v>128200</v>
+        <v>126900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1272500</v>
+        <v>-1259500</v>
       </c>
       <c r="H94" s="3">
-        <v>47100</v>
+        <v>46600</v>
       </c>
       <c r="I94" s="3">
-        <v>-173000</v>
+        <v>-171200</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
@@ -3765,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-140500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>460200</v>
+        <v>455500</v>
       </c>
       <c r="E100" s="3">
-        <v>325100</v>
+        <v>321800</v>
       </c>
       <c r="F100" s="3">
-        <v>-471400</v>
+        <v>-466600</v>
       </c>
       <c r="G100" s="3">
-        <v>1107000</v>
+        <v>1095700</v>
       </c>
       <c r="H100" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="I100" s="3">
-        <v>325400</v>
+        <v>322000</v>
       </c>
       <c r="J100" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>251700</v>
+        <v>249100</v>
       </c>
       <c r="E102" s="3">
-        <v>285200</v>
+        <v>282300</v>
       </c>
       <c r="F102" s="3">
-        <v>422000</v>
+        <v>417700</v>
       </c>
       <c r="G102" s="3">
-        <v>261700</v>
+        <v>259000</v>
       </c>
       <c r="H102" s="3">
-        <v>151800</v>
+        <v>150300</v>
       </c>
       <c r="I102" s="3">
-        <v>136500</v>
+        <v>135100</v>
       </c>
       <c r="J102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2353100</v>
+        <v>2280800</v>
       </c>
       <c r="E8" s="3">
-        <v>2364800</v>
+        <v>2292100</v>
       </c>
       <c r="F8" s="3">
-        <v>1928100</v>
+        <v>1868800</v>
       </c>
       <c r="G8" s="3">
-        <v>1310600</v>
+        <v>1270300</v>
       </c>
       <c r="H8" s="3">
-        <v>632100</v>
+        <v>612700</v>
       </c>
       <c r="I8" s="3">
-        <v>112000</v>
+        <v>108600</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>337400</v>
+        <v>327000</v>
       </c>
       <c r="E9" s="3">
-        <v>320100</v>
+        <v>310300</v>
       </c>
       <c r="F9" s="3">
-        <v>227500</v>
+        <v>220500</v>
       </c>
       <c r="G9" s="3">
-        <v>154000</v>
+        <v>149300</v>
       </c>
       <c r="H9" s="3">
-        <v>103600</v>
+        <v>100400</v>
       </c>
       <c r="I9" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="J9" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2015800</v>
+        <v>1953800</v>
       </c>
       <c r="E10" s="3">
-        <v>2044600</v>
+        <v>1981800</v>
       </c>
       <c r="F10" s="3">
-        <v>1700600</v>
+        <v>1648300</v>
       </c>
       <c r="G10" s="3">
-        <v>1156600</v>
+        <v>1121000</v>
       </c>
       <c r="H10" s="3">
-        <v>528500</v>
+        <v>512300</v>
       </c>
       <c r="I10" s="3">
-        <v>94700</v>
+        <v>91800</v>
       </c>
       <c r="J10" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1717400</v>
+        <v>1664600</v>
       </c>
       <c r="E17" s="3">
-        <v>1400100</v>
+        <v>1357100</v>
       </c>
       <c r="F17" s="3">
-        <v>1389300</v>
+        <v>1346600</v>
       </c>
       <c r="G17" s="3">
-        <v>899300</v>
+        <v>871600</v>
       </c>
       <c r="H17" s="3">
-        <v>398400</v>
+        <v>386100</v>
       </c>
       <c r="I17" s="3">
-        <v>82100</v>
+        <v>79600</v>
       </c>
       <c r="J17" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>635700</v>
+        <v>616200</v>
       </c>
       <c r="E18" s="3">
-        <v>964700</v>
+        <v>935000</v>
       </c>
       <c r="F18" s="3">
-        <v>538800</v>
+        <v>522200</v>
       </c>
       <c r="G18" s="3">
-        <v>411300</v>
+        <v>398700</v>
       </c>
       <c r="H18" s="3">
-        <v>233800</v>
+        <v>226600</v>
       </c>
       <c r="I18" s="3">
-        <v>29900</v>
+        <v>29000</v>
       </c>
       <c r="J18" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="E20" s="3">
-        <v>33600</v>
+        <v>32600</v>
       </c>
       <c r="F20" s="3">
-        <v>41400</v>
+        <v>40200</v>
       </c>
       <c r="G20" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>685100</v>
+        <v>664000</v>
       </c>
       <c r="E21" s="3">
-        <v>1007700</v>
+        <v>976700</v>
       </c>
       <c r="F21" s="3">
-        <v>585400</v>
+        <v>567400</v>
       </c>
       <c r="G21" s="3">
-        <v>428800</v>
+        <v>415600</v>
       </c>
       <c r="H21" s="3">
-        <v>236500</v>
+        <v>229200</v>
       </c>
       <c r="I21" s="3">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="J21" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>674100</v>
+        <v>653400</v>
       </c>
       <c r="E23" s="3">
-        <v>998300</v>
+        <v>967600</v>
       </c>
       <c r="F23" s="3">
-        <v>580200</v>
+        <v>562400</v>
       </c>
       <c r="G23" s="3">
-        <v>421800</v>
+        <v>408800</v>
       </c>
       <c r="H23" s="3">
-        <v>235900</v>
+        <v>228700</v>
       </c>
       <c r="I23" s="3">
-        <v>30300</v>
+        <v>29400</v>
       </c>
       <c r="J23" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104700</v>
+        <v>101500</v>
       </c>
       <c r="E24" s="3">
-        <v>178900</v>
+        <v>173400</v>
       </c>
       <c r="F24" s="3">
-        <v>83300</v>
+        <v>80700</v>
       </c>
       <c r="G24" s="3">
-        <v>66200</v>
+        <v>64200</v>
       </c>
       <c r="H24" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="I24" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>569400</v>
+        <v>551900</v>
       </c>
       <c r="E26" s="3">
-        <v>819400</v>
+        <v>794200</v>
       </c>
       <c r="F26" s="3">
-        <v>496900</v>
+        <v>481600</v>
       </c>
       <c r="G26" s="3">
-        <v>355600</v>
+        <v>344600</v>
       </c>
       <c r="H26" s="3">
-        <v>169600</v>
+        <v>164400</v>
       </c>
       <c r="I26" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J26" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>572000</v>
+        <v>554500</v>
       </c>
       <c r="E27" s="3">
-        <v>821900</v>
+        <v>796600</v>
       </c>
       <c r="F27" s="3">
-        <v>497000</v>
+        <v>481800</v>
       </c>
       <c r="G27" s="3">
-        <v>355600</v>
+        <v>344700</v>
       </c>
       <c r="H27" s="3">
-        <v>-270700</v>
+        <v>-262400</v>
       </c>
       <c r="I27" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J27" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="E32" s="3">
-        <v>-33600</v>
+        <v>-32600</v>
       </c>
       <c r="F32" s="3">
-        <v>-41400</v>
+        <v>-40200</v>
       </c>
       <c r="G32" s="3">
-        <v>-16400</v>
+        <v>-15900</v>
       </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>572000</v>
+        <v>554500</v>
       </c>
       <c r="E33" s="3">
-        <v>821900</v>
+        <v>796600</v>
       </c>
       <c r="F33" s="3">
-        <v>497000</v>
+        <v>481800</v>
       </c>
       <c r="G33" s="3">
-        <v>355600</v>
+        <v>344700</v>
       </c>
       <c r="H33" s="3">
-        <v>-270700</v>
+        <v>-262400</v>
       </c>
       <c r="I33" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J33" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>572000</v>
+        <v>554500</v>
       </c>
       <c r="E35" s="3">
-        <v>821900</v>
+        <v>796600</v>
       </c>
       <c r="F35" s="3">
-        <v>497000</v>
+        <v>481800</v>
       </c>
       <c r="G35" s="3">
-        <v>355600</v>
+        <v>344700</v>
       </c>
       <c r="H35" s="3">
-        <v>-270700</v>
+        <v>-262400</v>
       </c>
       <c r="I35" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J35" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1018600</v>
+        <v>987300</v>
       </c>
       <c r="E41" s="3">
-        <v>869400</v>
+        <v>842700</v>
       </c>
       <c r="F41" s="3">
-        <v>628100</v>
+        <v>608800</v>
       </c>
       <c r="G41" s="3">
-        <v>299700</v>
+        <v>290500</v>
       </c>
       <c r="H41" s="3">
-        <v>205500</v>
+        <v>199200</v>
       </c>
       <c r="I41" s="3">
-        <v>66600</v>
+        <v>64600</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
@@ -1864,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3234200</v>
+        <v>3134800</v>
       </c>
       <c r="E43" s="3">
-        <v>2521500</v>
+        <v>2444000</v>
       </c>
       <c r="F43" s="3">
-        <v>1959600</v>
+        <v>1899400</v>
       </c>
       <c r="G43" s="3">
-        <v>2001800</v>
+        <v>1940200</v>
       </c>
       <c r="H43" s="3">
-        <v>628800</v>
+        <v>609500</v>
       </c>
       <c r="I43" s="3">
-        <v>223200</v>
+        <v>216400</v>
       </c>
       <c r="J43" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>586100</v>
+        <v>568000</v>
       </c>
       <c r="E45" s="3">
-        <v>554700</v>
+        <v>537700</v>
       </c>
       <c r="F45" s="3">
-        <v>522000</v>
+        <v>506000</v>
       </c>
       <c r="G45" s="3">
-        <v>471000</v>
+        <v>456500</v>
       </c>
       <c r="H45" s="3">
-        <v>209300</v>
+        <v>202900</v>
       </c>
       <c r="I45" s="3">
-        <v>74200</v>
+        <v>71900</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4847000</v>
+        <v>4697900</v>
       </c>
       <c r="E46" s="3">
-        <v>3945700</v>
+        <v>3824400</v>
       </c>
       <c r="F46" s="3">
-        <v>3109700</v>
+        <v>3014100</v>
       </c>
       <c r="G46" s="3">
-        <v>2772400</v>
+        <v>2687200</v>
       </c>
       <c r="H46" s="3">
-        <v>1043700</v>
+        <v>1011600</v>
       </c>
       <c r="I46" s="3">
-        <v>364000</v>
+        <v>352800</v>
       </c>
       <c r="J46" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>585700</v>
+        <v>567700</v>
       </c>
       <c r="E47" s="3">
-        <v>543200</v>
+        <v>526500</v>
       </c>
       <c r="F47" s="3">
-        <v>148000</v>
+        <v>143400</v>
       </c>
       <c r="G47" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F48" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="G48" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>142600</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>145500</v>
+        <v>141100</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144900</v>
+        <v>278000</v>
       </c>
       <c r="E52" s="3">
-        <v>118700</v>
+        <v>115000</v>
       </c>
       <c r="F52" s="3">
-        <v>198800</v>
+        <v>192700</v>
       </c>
       <c r="G52" s="3">
-        <v>99100</v>
+        <v>96100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="J52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5734800</v>
+        <v>5558500</v>
       </c>
       <c r="E54" s="3">
-        <v>4762700</v>
+        <v>4616300</v>
       </c>
       <c r="F54" s="3">
-        <v>3466700</v>
+        <v>3360100</v>
       </c>
       <c r="G54" s="3">
-        <v>2893500</v>
+        <v>2804600</v>
       </c>
       <c r="H54" s="3">
-        <v>1044800</v>
+        <v>1012600</v>
       </c>
       <c r="I54" s="3">
-        <v>391400</v>
+        <v>379300</v>
       </c>
       <c r="J54" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>56500</v>
+        <v>54800</v>
       </c>
       <c r="F58" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="G58" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2359700</v>
+        <v>2287100</v>
       </c>
       <c r="E59" s="3">
-        <v>1953900</v>
+        <v>1893900</v>
       </c>
       <c r="F59" s="3">
-        <v>1876100</v>
+        <v>1818400</v>
       </c>
       <c r="G59" s="3">
-        <v>1345800</v>
+        <v>1304400</v>
       </c>
       <c r="H59" s="3">
-        <v>411400</v>
+        <v>398700</v>
       </c>
       <c r="I59" s="3">
-        <v>334300</v>
+        <v>324000</v>
       </c>
       <c r="J59" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2381000</v>
+        <v>2307800</v>
       </c>
       <c r="E60" s="3">
-        <v>2010500</v>
+        <v>1948600</v>
       </c>
       <c r="F60" s="3">
-        <v>1902600</v>
+        <v>1844100</v>
       </c>
       <c r="G60" s="3">
-        <v>1374200</v>
+        <v>1331900</v>
       </c>
       <c r="H60" s="3">
-        <v>411400</v>
+        <v>398700</v>
       </c>
       <c r="I60" s="3">
-        <v>334300</v>
+        <v>324000</v>
       </c>
       <c r="J60" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>662700</v>
+        <v>642300</v>
       </c>
       <c r="E62" s="3">
-        <v>589200</v>
+        <v>571100</v>
       </c>
       <c r="F62" s="3">
-        <v>216300</v>
+        <v>209700</v>
       </c>
       <c r="G62" s="3">
-        <v>493800</v>
+        <v>478600</v>
       </c>
       <c r="H62" s="3">
         <v>2200</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3055700</v>
+        <v>2961700</v>
       </c>
       <c r="E66" s="3">
-        <v>2601500</v>
+        <v>2521500</v>
       </c>
       <c r="F66" s="3">
-        <v>2119000</v>
+        <v>2053800</v>
       </c>
       <c r="G66" s="3">
-        <v>1868200</v>
+        <v>1810700</v>
       </c>
       <c r="H66" s="3">
-        <v>413600</v>
+        <v>400900</v>
       </c>
       <c r="I66" s="3">
-        <v>334300</v>
+        <v>324000</v>
       </c>
       <c r="J66" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1820000</v>
+        <v>1764100</v>
       </c>
       <c r="E72" s="3">
-        <v>1370700</v>
+        <v>1328500</v>
       </c>
       <c r="F72" s="3">
-        <v>588200</v>
+        <v>570100</v>
       </c>
       <c r="G72" s="3">
-        <v>294400</v>
+        <v>285400</v>
       </c>
       <c r="H72" s="3">
-        <v>-61200</v>
+        <v>-59300</v>
       </c>
       <c r="I72" s="3">
-        <v>-26800</v>
+        <v>-25900</v>
       </c>
       <c r="J72" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2679100</v>
+        <v>2596800</v>
       </c>
       <c r="E76" s="3">
-        <v>2161200</v>
+        <v>2094800</v>
       </c>
       <c r="F76" s="3">
-        <v>1347700</v>
+        <v>1306200</v>
       </c>
       <c r="G76" s="3">
-        <v>1025400</v>
+        <v>993900</v>
       </c>
       <c r="H76" s="3">
-        <v>631200</v>
+        <v>611800</v>
       </c>
       <c r="I76" s="3">
-        <v>57100</v>
+        <v>55400</v>
       </c>
       <c r="J76" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>572000</v>
+        <v>554500</v>
       </c>
       <c r="E81" s="3">
-        <v>821900</v>
+        <v>796600</v>
       </c>
       <c r="F81" s="3">
-        <v>497000</v>
+        <v>481800</v>
       </c>
       <c r="G81" s="3">
-        <v>355600</v>
+        <v>344700</v>
       </c>
       <c r="H81" s="3">
-        <v>-270700</v>
+        <v>-262400</v>
       </c>
       <c r="I81" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J81" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>841900</v>
+        <v>816000</v>
       </c>
       <c r="E89" s="3">
-        <v>823000</v>
+        <v>797700</v>
       </c>
       <c r="F89" s="3">
-        <v>757100</v>
+        <v>733800</v>
       </c>
       <c r="G89" s="3">
-        <v>422600</v>
+        <v>409600</v>
       </c>
       <c r="H89" s="3">
-        <v>40500</v>
+        <v>39300</v>
       </c>
       <c r="I89" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="J89" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1045700</v>
+        <v>-1013500</v>
       </c>
       <c r="E94" s="3">
-        <v>-862000</v>
+        <v>-835500</v>
       </c>
       <c r="F94" s="3">
-        <v>126900</v>
+        <v>123000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1259500</v>
+        <v>-1220800</v>
       </c>
       <c r="H94" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="I94" s="3">
-        <v>-171200</v>
+        <v>-165900</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
@@ -3765,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-140500</v>
+        <v>-136200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>455500</v>
+        <v>441500</v>
       </c>
       <c r="E100" s="3">
-        <v>321800</v>
+        <v>311900</v>
       </c>
       <c r="F100" s="3">
-        <v>-466600</v>
+        <v>-452200</v>
       </c>
       <c r="G100" s="3">
-        <v>1095700</v>
+        <v>1062000</v>
       </c>
       <c r="H100" s="3">
-        <v>65000</v>
+        <v>63000</v>
       </c>
       <c r="I100" s="3">
-        <v>322000</v>
+        <v>312100</v>
       </c>
       <c r="J100" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,7 +3960,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E101" s="3">
         <v>-500</v>
@@ -3969,10 +3969,10 @@
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>249100</v>
+        <v>241400</v>
       </c>
       <c r="E102" s="3">
-        <v>282300</v>
+        <v>273600</v>
       </c>
       <c r="F102" s="3">
-        <v>417700</v>
+        <v>404900</v>
       </c>
       <c r="G102" s="3">
-        <v>259000</v>
+        <v>251100</v>
       </c>
       <c r="H102" s="3">
-        <v>150300</v>
+        <v>145700</v>
       </c>
       <c r="I102" s="3">
-        <v>135100</v>
+        <v>130900</v>
       </c>
       <c r="J102" s="3">
         <v>900</v>

--- a/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QFIN_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2280800</v>
+        <v>2285800</v>
       </c>
       <c r="E8" s="3">
-        <v>2292100</v>
+        <v>2297000</v>
       </c>
       <c r="F8" s="3">
-        <v>1868800</v>
+        <v>1872900</v>
       </c>
       <c r="G8" s="3">
-        <v>1270300</v>
+        <v>1273100</v>
       </c>
       <c r="H8" s="3">
-        <v>612700</v>
+        <v>614000</v>
       </c>
       <c r="I8" s="3">
-        <v>108600</v>
+        <v>108800</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>327000</v>
+        <v>327700</v>
       </c>
       <c r="E9" s="3">
-        <v>310300</v>
+        <v>311000</v>
       </c>
       <c r="F9" s="3">
-        <v>220500</v>
+        <v>221000</v>
       </c>
       <c r="G9" s="3">
-        <v>149300</v>
+        <v>149600</v>
       </c>
       <c r="H9" s="3">
-        <v>100400</v>
+        <v>100700</v>
       </c>
       <c r="I9" s="3">
         <v>16800</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1953800</v>
+        <v>1958000</v>
       </c>
       <c r="E10" s="3">
-        <v>1981800</v>
+        <v>1986100</v>
       </c>
       <c r="F10" s="3">
-        <v>1648300</v>
+        <v>1651900</v>
       </c>
       <c r="G10" s="3">
-        <v>1121000</v>
+        <v>1123500</v>
       </c>
       <c r="H10" s="3">
-        <v>512300</v>
+        <v>513400</v>
       </c>
       <c r="I10" s="3">
-        <v>91800</v>
+        <v>92000</v>
       </c>
       <c r="J10" s="3">
         <v>-1800</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1664600</v>
+        <v>1668200</v>
       </c>
       <c r="E17" s="3">
-        <v>1357100</v>
+        <v>1360000</v>
       </c>
       <c r="F17" s="3">
-        <v>1346600</v>
+        <v>1349600</v>
       </c>
       <c r="G17" s="3">
-        <v>871600</v>
+        <v>873500</v>
       </c>
       <c r="H17" s="3">
-        <v>386100</v>
+        <v>387000</v>
       </c>
       <c r="I17" s="3">
-        <v>79600</v>
+        <v>79700</v>
       </c>
       <c r="J17" s="3">
         <v>4200</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>616200</v>
+        <v>617500</v>
       </c>
       <c r="E18" s="3">
-        <v>935000</v>
+        <v>937000</v>
       </c>
       <c r="F18" s="3">
-        <v>522200</v>
+        <v>523300</v>
       </c>
       <c r="G18" s="3">
-        <v>398700</v>
+        <v>399500</v>
       </c>
       <c r="H18" s="3">
-        <v>226600</v>
+        <v>227100</v>
       </c>
       <c r="I18" s="3">
-        <v>29000</v>
+        <v>29100</v>
       </c>
       <c r="J18" s="3">
         <v>-4200</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="E20" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F20" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="G20" s="3">
         <v>15900</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>664000</v>
+        <v>665500</v>
       </c>
       <c r="E21" s="3">
-        <v>976700</v>
+        <v>978800</v>
       </c>
       <c r="F21" s="3">
-        <v>567400</v>
+        <v>568600</v>
       </c>
       <c r="G21" s="3">
-        <v>415600</v>
+        <v>416500</v>
       </c>
       <c r="H21" s="3">
-        <v>229200</v>
+        <v>229700</v>
       </c>
       <c r="I21" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="J21" s="3">
         <v>-4100</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>653400</v>
+        <v>654800</v>
       </c>
       <c r="E23" s="3">
-        <v>967600</v>
+        <v>969700</v>
       </c>
       <c r="F23" s="3">
-        <v>562400</v>
+        <v>563600</v>
       </c>
       <c r="G23" s="3">
-        <v>408800</v>
+        <v>409700</v>
       </c>
       <c r="H23" s="3">
-        <v>228700</v>
+        <v>229200</v>
       </c>
       <c r="I23" s="3">
         <v>29400</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101500</v>
+        <v>101700</v>
       </c>
       <c r="E24" s="3">
-        <v>173400</v>
+        <v>173700</v>
       </c>
       <c r="F24" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="G24" s="3">
-        <v>64200</v>
+        <v>64300</v>
       </c>
       <c r="H24" s="3">
-        <v>64300</v>
+        <v>64400</v>
       </c>
       <c r="I24" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J24" s="3">
         <v>-1100</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>551900</v>
+        <v>553100</v>
       </c>
       <c r="E26" s="3">
-        <v>794200</v>
+        <v>796000</v>
       </c>
       <c r="F26" s="3">
-        <v>481600</v>
+        <v>482700</v>
       </c>
       <c r="G26" s="3">
-        <v>344600</v>
+        <v>345400</v>
       </c>
       <c r="H26" s="3">
-        <v>164400</v>
+        <v>164800</v>
       </c>
       <c r="I26" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J26" s="3">
         <v>-3000</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>554500</v>
+        <v>555700</v>
       </c>
       <c r="E27" s="3">
-        <v>796600</v>
+        <v>798300</v>
       </c>
       <c r="F27" s="3">
-        <v>481800</v>
+        <v>482800</v>
       </c>
       <c r="G27" s="3">
-        <v>344700</v>
+        <v>345400</v>
       </c>
       <c r="H27" s="3">
-        <v>-262400</v>
+        <v>-263000</v>
       </c>
       <c r="I27" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J27" s="3">
         <v>-3000</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37200</v>
+        <v>-37300</v>
       </c>
       <c r="E32" s="3">
-        <v>-32600</v>
+        <v>-32700</v>
       </c>
       <c r="F32" s="3">
-        <v>-40200</v>
+        <v>-40300</v>
       </c>
       <c r="G32" s="3">
         <v>-15900</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>554500</v>
+        <v>555700</v>
       </c>
       <c r="E33" s="3">
-        <v>796600</v>
+        <v>798300</v>
       </c>
       <c r="F33" s="3">
-        <v>481800</v>
+        <v>482800</v>
       </c>
       <c r="G33" s="3">
-        <v>344700</v>
+        <v>345400</v>
       </c>
       <c r="H33" s="3">
-        <v>-262400</v>
+        <v>-263000</v>
       </c>
       <c r="I33" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J33" s="3">
         <v>-3000</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>554500</v>
+        <v>555700</v>
       </c>
       <c r="E35" s="3">
-        <v>796600</v>
+        <v>798300</v>
       </c>
       <c r="F35" s="3">
-        <v>481800</v>
+        <v>482800</v>
       </c>
       <c r="G35" s="3">
-        <v>344700</v>
+        <v>345400</v>
       </c>
       <c r="H35" s="3">
-        <v>-262400</v>
+        <v>-263000</v>
       </c>
       <c r="I35" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J35" s="3">
         <v>-3000</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>987300</v>
+        <v>989400</v>
       </c>
       <c r="E41" s="3">
-        <v>842700</v>
+        <v>844500</v>
       </c>
       <c r="F41" s="3">
-        <v>608800</v>
+        <v>610100</v>
       </c>
       <c r="G41" s="3">
-        <v>290500</v>
+        <v>291100</v>
       </c>
       <c r="H41" s="3">
-        <v>199200</v>
+        <v>199600</v>
       </c>
       <c r="I41" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3134800</v>
+        <v>3141600</v>
       </c>
       <c r="E43" s="3">
-        <v>2444000</v>
+        <v>2449300</v>
       </c>
       <c r="F43" s="3">
-        <v>1899400</v>
+        <v>1903500</v>
       </c>
       <c r="G43" s="3">
-        <v>1940200</v>
+        <v>1944500</v>
       </c>
       <c r="H43" s="3">
-        <v>609500</v>
+        <v>610800</v>
       </c>
       <c r="I43" s="3">
-        <v>216400</v>
+        <v>216800</v>
       </c>
       <c r="J43" s="3">
         <v>9400</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>568000</v>
+        <v>569300</v>
       </c>
       <c r="E45" s="3">
-        <v>537700</v>
+        <v>538800</v>
       </c>
       <c r="F45" s="3">
-        <v>506000</v>
+        <v>507100</v>
       </c>
       <c r="G45" s="3">
-        <v>456500</v>
+        <v>457500</v>
       </c>
       <c r="H45" s="3">
-        <v>202900</v>
+        <v>203300</v>
       </c>
       <c r="I45" s="3">
-        <v>71900</v>
+        <v>72000</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4697900</v>
+        <v>4708200</v>
       </c>
       <c r="E46" s="3">
-        <v>3824400</v>
+        <v>3832700</v>
       </c>
       <c r="F46" s="3">
-        <v>3014100</v>
+        <v>3020600</v>
       </c>
       <c r="G46" s="3">
-        <v>2687200</v>
+        <v>2693000</v>
       </c>
       <c r="H46" s="3">
-        <v>1011600</v>
+        <v>1013800</v>
       </c>
       <c r="I46" s="3">
-        <v>352800</v>
+        <v>353600</v>
       </c>
       <c r="J46" s="3">
         <v>10900</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>567700</v>
+        <v>568900</v>
       </c>
       <c r="E47" s="3">
-        <v>526500</v>
+        <v>527700</v>
       </c>
       <c r="F47" s="3">
-        <v>143400</v>
+        <v>143700</v>
       </c>
       <c r="G47" s="3">
         <v>10900</v>
@@ -2098,7 +2098,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="E48" s="3">
         <v>9300</v>
@@ -2140,7 +2140,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>141100</v>
+        <v>141400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>278000</v>
+        <v>278600</v>
       </c>
       <c r="E52" s="3">
-        <v>115000</v>
+        <v>115300</v>
       </c>
       <c r="F52" s="3">
-        <v>192700</v>
+        <v>193100</v>
       </c>
       <c r="G52" s="3">
-        <v>96100</v>
+        <v>96300</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5558500</v>
+        <v>5570600</v>
       </c>
       <c r="E54" s="3">
-        <v>4616300</v>
+        <v>4626400</v>
       </c>
       <c r="F54" s="3">
-        <v>3360100</v>
+        <v>3367400</v>
       </c>
       <c r="G54" s="3">
-        <v>2804600</v>
+        <v>2810700</v>
       </c>
       <c r="H54" s="3">
-        <v>1012600</v>
+        <v>1014900</v>
       </c>
       <c r="I54" s="3">
-        <v>379300</v>
+        <v>380200</v>
       </c>
       <c r="J54" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
         <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="F58" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="G58" s="3">
         <v>27600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2287100</v>
+        <v>2292100</v>
       </c>
       <c r="E59" s="3">
-        <v>1893900</v>
+        <v>1898000</v>
       </c>
       <c r="F59" s="3">
-        <v>1818400</v>
+        <v>1822300</v>
       </c>
       <c r="G59" s="3">
-        <v>1304400</v>
+        <v>1307200</v>
       </c>
       <c r="H59" s="3">
-        <v>398700</v>
+        <v>399600</v>
       </c>
       <c r="I59" s="3">
-        <v>324000</v>
+        <v>324700</v>
       </c>
       <c r="J59" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2307800</v>
+        <v>2312800</v>
       </c>
       <c r="E60" s="3">
-        <v>1948600</v>
+        <v>1952900</v>
       </c>
       <c r="F60" s="3">
-        <v>1844100</v>
+        <v>1848100</v>
       </c>
       <c r="G60" s="3">
-        <v>1331900</v>
+        <v>1334800</v>
       </c>
       <c r="H60" s="3">
-        <v>398700</v>
+        <v>399600</v>
       </c>
       <c r="I60" s="3">
-        <v>324000</v>
+        <v>324700</v>
       </c>
       <c r="J60" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>642300</v>
+        <v>643700</v>
       </c>
       <c r="E62" s="3">
-        <v>571100</v>
+        <v>572400</v>
       </c>
       <c r="F62" s="3">
-        <v>209700</v>
+        <v>210100</v>
       </c>
       <c r="G62" s="3">
-        <v>478600</v>
+        <v>479600</v>
       </c>
       <c r="H62" s="3">
         <v>2200</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2961700</v>
+        <v>2968200</v>
       </c>
       <c r="E66" s="3">
-        <v>2521500</v>
+        <v>2527000</v>
       </c>
       <c r="F66" s="3">
-        <v>2053800</v>
+        <v>2058300</v>
       </c>
       <c r="G66" s="3">
-        <v>1810700</v>
+        <v>1814700</v>
       </c>
       <c r="H66" s="3">
-        <v>400900</v>
+        <v>401700</v>
       </c>
       <c r="I66" s="3">
-        <v>324000</v>
+        <v>324700</v>
       </c>
       <c r="J66" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1764100</v>
+        <v>1767900</v>
       </c>
       <c r="E72" s="3">
-        <v>1328500</v>
+        <v>1331400</v>
       </c>
       <c r="F72" s="3">
-        <v>570100</v>
+        <v>571300</v>
       </c>
       <c r="G72" s="3">
-        <v>285400</v>
+        <v>286000</v>
       </c>
       <c r="H72" s="3">
-        <v>-59300</v>
+        <v>-59400</v>
       </c>
       <c r="I72" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="J72" s="3">
         <v>-3000</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2596800</v>
+        <v>2602400</v>
       </c>
       <c r="E76" s="3">
-        <v>2094800</v>
+        <v>2099300</v>
       </c>
       <c r="F76" s="3">
-        <v>1306200</v>
+        <v>1309100</v>
       </c>
       <c r="G76" s="3">
-        <v>993900</v>
+        <v>996000</v>
       </c>
       <c r="H76" s="3">
-        <v>611800</v>
+        <v>613100</v>
       </c>
       <c r="I76" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="J76" s="3">
         <v>-3000</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>554500</v>
+        <v>555700</v>
       </c>
       <c r="E81" s="3">
-        <v>796600</v>
+        <v>798300</v>
       </c>
       <c r="F81" s="3">
-        <v>481800</v>
+        <v>482800</v>
       </c>
       <c r="G81" s="3">
-        <v>344700</v>
+        <v>345400</v>
       </c>
       <c r="H81" s="3">
-        <v>-262400</v>
+        <v>-263000</v>
       </c>
       <c r="I81" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="J81" s="3">
         <v>-3000</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>816000</v>
+        <v>817800</v>
       </c>
       <c r="E89" s="3">
-        <v>797700</v>
+        <v>799400</v>
       </c>
       <c r="F89" s="3">
-        <v>733800</v>
+        <v>735400</v>
       </c>
       <c r="G89" s="3">
-        <v>409600</v>
+        <v>410500</v>
       </c>
       <c r="H89" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="I89" s="3">
         <v>-15300</v>
       </c>
       <c r="J89" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1013500</v>
+        <v>-1015700</v>
       </c>
       <c r="E94" s="3">
-        <v>-835500</v>
+        <v>-837400</v>
       </c>
       <c r="F94" s="3">
-        <v>123000</v>
+        <v>123300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1220800</v>
+        <v>-1223400</v>
       </c>
       <c r="H94" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="I94" s="3">
-        <v>-165900</v>
+        <v>-166300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
@@ -3765,7 +3765,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-136200</v>
+        <v>-136500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>441500</v>
+        <v>442400</v>
       </c>
       <c r="E100" s="3">
-        <v>311900</v>
+        <v>312600</v>
       </c>
       <c r="F100" s="3">
-        <v>-452200</v>
+        <v>-453200</v>
       </c>
       <c r="G100" s="3">
-        <v>1062000</v>
+        <v>1064300</v>
       </c>
       <c r="H100" s="3">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="I100" s="3">
-        <v>312100</v>
+        <v>312800</v>
       </c>
       <c r="J100" s="3">
         <v>10600</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>241400</v>
+        <v>242000</v>
       </c>
       <c r="E102" s="3">
-        <v>273600</v>
+        <v>274200</v>
       </c>
       <c r="F102" s="3">
-        <v>404900</v>
+        <v>405700</v>
       </c>
       <c r="G102" s="3">
-        <v>251100</v>
+        <v>251600</v>
       </c>
       <c r="H102" s="3">
-        <v>145700</v>
+        <v>146000</v>
       </c>
       <c r="I102" s="3">
-        <v>130900</v>
+        <v>131200</v>
       </c>
       <c r="J102" s="3">
         <v>900</v>
